--- a/samples/2-Sheets-SA-عينة-مراكز-العناية-preview.xlsx
+++ b/samples/2-Sheets-SA-عينة-مراكز-العناية-preview.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="681">
   <si>
     <t>GoogleMaps Links</t>
   </si>
@@ -41,304 +41,13 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%87%D8%AF%D9%89+%D8%A7%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49db07f3739c2f:0x9293016706a60bd9!8m2!3d26.1616728!4d50.150756!16s%2Fg%2F11h1yvt27c!19sChIJL5xz8wfbST4R2QumBmcBk5I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%A8%D9%88%D8%A7%D8%A8%D8%A9+%D8%A7%D9%84%D8%A7%D8%A8%D8%AF%D8%A7%D8%B9+%D9%84%D9%84%D8%AA%D8%B2%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3b4244a04e159:0x49d633ae285f6c20!8m2!3d21.3088957!4d39.2653258!16s%2Fg%2F11ggs3nn82!19sChIJWeEESiS0wxURIGxfKK4z1kk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%AC%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3b5537e1b592f:0x4cbf661659685166!8m2!3d21.3276108!4d39.2651863!16s%2Fg%2F11q3ly__vp!19sChIJL1kbflO1wxURZlFoWRZmv0w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%A7%D9%86%D8%AC%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15e3538322302431:0xa8bf4d31057e2419!8m2!3d18.2008293!4d42.5087341!16s%2Fg%2F11gff688bq!19sChIJMSQwIoNT4xURGSR-BTFNv6g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D9%86%D8%A7%D8%B1%D9%8A%D9%86+%D9%84%D9%84%D8%AA%D8%B2%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e3544ebed27a1d:0x182848b876906a65!8m2!3d18.2297066!4d42.5090373!16s%2Fg%2F11c524xjxj!19sChIJHXrSvk5U4xURZWqQdrhIKBg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%B1%D8%AC%D8%A7%D9%84%D9%8A+%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%85%D9%86%D9%8A%D8%B1%D8%A9+%D9%85%D8%A8%D8%A7%D8%B1%D9%83+2%E2%80%AD/data=!4m7!3m6!1s0x3e2f05bc7f423bcf:0x314b866ae9a7ad2d!8m2!3d24.6761518!4d46.7460946!16s%2Fg%2F11tb5s7vw4!19sChIJzztCf7wFLz4RLa2n6WqGSzE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A3%D9%86%D8%A7%D9%85%D9%84+%D8%A7%D9%84%D9%82%D8%B5+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2effb7f8b90039:0xa6fdb945247e5476!8m2!3d24.7992784!4d46.7500077!16s%2Fg%2F11kr8mkx82!19sChIJOQC5-Lf_Lj4RdlR-JEW5_aY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%88%D9%84%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15e9892a37228c93:0x1bf6bb506bb592b4!8m2!3d21.2691306!4d40.4292201!16s%2Fg%2F11hd6z0dj0!19sChIJk4wiNyqJ6RURtJK1a1C79hs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%B1%D9%88%D9%86%D9%82+%D8%A7%D9%84%D8%B7%D9%81%D9%84%E2%80%AD/data=!4m7!3m6!1s0x157f5ffa1fe653f3:0xa2e93b6958af6251!8m2!3d26.3104532!4d44.0405856!16s%2Fg%2F11vf9n18_s!19sChIJ81PmH_pffxURUWKvWGk76aI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D8%BA%D8%A7%D8%AF%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e49fe80179b4337:0xa2b68d6c4e0868b7!8m2!3d26.4604949!4d50.0609914!16s%2Fg%2F11f2y4jjy0!19sChIJN0ObF4D-ST4Rt2gITmyNtqI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/30+%D8%AB%D9%84%D8%A7%D8%AB%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb50b024bd2d2b:0x2cd925be8ce78ed4!8m2!3d18.3173879!4d42.6973212!16s%2Fg%2F11clwphknk!19sChIJKy29JLBQ-xUR1I7njL4l2Sw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D9%85%D8%BA%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d1673b2e3fbb:0x4ffe2c92eafba571!8m2!3d21.583334!4d39.2315071!16s%2Fg%2F11f5tv31yh!19sChIJuz8uO2fRwxURcaX76pIs_k8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%A7%D8%B3%D8%B7%D9%88%D8%B1%D8%A9+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3da6b1aaa82b1:0xe59b28aa39833905!8m2!3d21.6097247!4d39.13674!16s%2Fg%2F11g6yh1ckx!19sChIJsYKqGmvawxURBTmDOaoom-U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B9%D8%AA%D9%86%D9%8A+%D8%A8%D9%86%D9%81%D8%B3%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15bdc75619b373cb:0x1f6ff46ef24deeef!8m2!3d24.444527!4d39.5002159!16s%2Fg%2F11nxs49pdf!19sChIJy3OzGVbHvRUR7-5N8m70bx8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/LOLO+TBOUK+makeup+article/data=!4m7!3m6!1s0x15a9ad63c5213e13:0xd8d3d29a18ebc310!8m2!3d28.4306022!4d36.5712899!16s%2Fg%2F11hz3j9f7y!19sChIJEz4hxWOtqRUREMPrGJrS09g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%84%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1ede4ee718d1:0x5cd902d656a2ab7b!8m2!3d24.6435441!4d46.5576215!16s%2Fg%2F11gcqwtpr3!19sChIJ0RjnTt4eLz4Re6uiVtYC2Vw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%86%D8%AA+%D8%A7%D9%84%D9%85%D8%AF%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e98e94bbdab9e1:0x5ad5b1ce9c0e3452!8m2!3d21.2488844!4d40.4098241!16s%2Fg%2F11bzxylxsy!19sChIJ4bnau5SO6RURUjQOnM6x1Vo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mens+Barber+shop/data=!4m7!3m6!1s0x3e49fdd98d963981:0xc93f0f17b33d8d7b!8m2!3d26.4171585!4d50.0693499!16s%2Fg%2F11gxgr1y9g!19sChIJgTmWjdn9ST4Re409sxcPP8k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D9%85%D9%8A%D8%B3%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x157f59db9de8d78f:0x8588c87f6cb74a38!8m2!3d26.3655306!4d43.9549672!16s%2Fg%2F11h2qth72z!19sChIJj9fondtZfxUROEq3bH_IiIU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%A7%D8%AC+%D8%AD%D9%85%D8%A7%D9%85+%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%28%D8%A8%D8%AE%D8%A7%D8%B1+%D8%B3%D8%A7%D9%88%D9%86%D8%A7%29%2F+%D9%85%D8%BA%D8%B1%D8%A8%D9%8A+%D8%B3%D9%86%D8%AA%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x156c0db16c9614e3:0xe5918006a4727382!8m2!3d30.9781817!4d41.0211833!16s%2Fg%2F11ghqcqqbv!19sChIJ4xSWbLENbBURgnNypAaAkeU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%84%D9%8A%D8%A7%D9%84%D9%8A+%D8%A7%D9%84%D9%81%D9%8A%D8%AD%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e350f98a8c62b85:0xf1ec93fe6dbcc26b!8m2!3d27.1142579!4d49.5480917!16s%2Fg%2F11fx90x1bg!19sChIJhSvGqJgPNT4Ra8K8bf6T7PE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%87%D9%86%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3ee8a7f42f7:0xf9500d7d23c42091!8m2!3d24.7483234!4d46.6145121!16s%2Fg%2F11tjl506xp!19sChIJ90J_iu7jLj4RkSDEI30NUPk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D9%85%D8%B3%D8%A9+%D8%A3%D8%B4%D8%AC%D8%A7%D9%86+%D9%84%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3ce0e074fd1d5:0x1676523d247666eb!8m2!3d21.5203825!4d39.2279382!16s%2Fg%2F11f2v68yvx!19sChIJ1dFPBw7OwxUR62Z2JD1SdhY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D9%82%D9%88%D9%84%D8%AF%D9%86+%D9%87%D9%88%D8%B1%D8%B3%D8%B2+%D8%A8%D8%A7%D9%84%D9%81%D8%B6%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e37934a5e9ee087:0xc08239d3b12d4f7c!8m2!3d25.3740769!4d49.6882826!16s%2Fg%2F11gjm0x6pr!19sChIJh-CeXkqTNz4RfE8tsdM5gsA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D8%A7%D9%84%D8%B3%D8%AF%D8%B1%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e37975386ebed03:0x5d7b83efac3485aa!8m2!3d25.3772663!4d49.605438!16s%2Fg%2F11ssklpz2d!19sChIJA-3rhlOXNz4RqoU0rO-De10?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D8%AA%D8%AC%D8%B9+%D9%84%D9%88%D8%B1%D9%8A%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e3795c70fef64cf:0x486655f0332fec61!8m2!3d25.4250457!4d49.6279468!16s%2Fg%2F11c1rflgkg!19sChIJz2TvD8eVNz4RYewvM_BVZkg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/EVAN+BARBER/data=!4m7!3m6!1s0x3e2f014d32f12063:0x49d2be3e03c89569!8m2!3d24.7654618!4d46.7874184!16s%2Fg%2F11f902h6z8!19sChIJYyDxMk0BLz4RaZXIAz6-0kk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Nails.talk/data=!4m7!3m6!1s0x3e49e971192d05d5:0x761ee0ab2eeac238!8m2!3d26.343914!4d50.2035076!16s%2Fg%2F11jsf84c11!19sChIJ1QUtGXHpST4ROMLqLqvgHnY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/La+Fontaine+salon+and+massage+spa+for+Man/data=!4m7!3m6!1s0x15c3cfde25290abf:0x180faac473fd8fee!8m2!3d21.521506!4d39.1604295!16s%2Fg%2F11vc58wprm!19sChIJvwopJd7PwxUR7o_9c8SqDxg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%B1%D9%88%D8%B4+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f194657075a39:0x425ffaf021831abb!8m2!3d24.5723383!4d46.5362362!16s%2Fg%2F11s7s8nvjw!19sChIJOVoHV0YZLz4RuxqDIfD6X0I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%28%D9%85%D8%B4%D8%BA%D9%84%29+%D9%87%D9%84%D8%A7+%D8%AC%D9%88%D9%8A%D9%84+%D9%84%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b9058435d07cfb:0x6e3ee2dc880165cb!8m2!3d24.0841035!4d38.0978009!16s%2Fg%2F11f52bnfc1!19sChIJ-3zQNYQFuRURy2UBiNziPm4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%AD%D9%84%D8%A7%D9%82+-+%D8%AD%D9%84%D8%A7%D9%82%D9%87+%D8%AF%D8%A7%D8%AE%D9%84+%D9%81%D9%86%D8%AF%D9%82+%D9%85%D9%8A%D8%AF%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c205b4a1bb6851:0x16790528ed140dbf!8m2!3d21.4174875!4d39.853653!16s%2Fg%2F11vhfvvfjb!19sChIJUWi7obQFwhURvw0U7SgFeRY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%AA%D8%B1%D8%A7%D8%AD%D8%A9+%D8%A7%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D8%A7%D9%84%D8%B3%D8%B9%D8%AF+%D8%A7%D9%84%D9%85%D8%AD%D9%8A%D9%85%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x158219a6a95dc62b:0xd4f50fd7269f6d92!8m2!3d26.1817572!4d43.6674735!16s%2Fg%2F11ksl5fckm!19sChIJK8ZdqaYZghURkm2fJtcP9dQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%A7%D8%B5%D8%AF%D8%A7%D9%81+%D8%B3%D9%86%D8%AA%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15fb50b9b17ec93f:0x20af667169db1877!8m2!3d18.3193345!4d42.6846206!16s%2Fg%2F11cs26wl5q!19sChIJP8l-sblQ-xURdxjbaXFmryA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%88%D9%81%D8%A7%D8%A1+%D9%82%D9%84%D8%A7%D9%85+%7C+Wafa+Glam%E2%80%AD/data=!4m7!3m6!1s0x15ea2fadd46a7f99:0xae6038ae1857cb5a!8m2!3d21.4198782!4d40.4935199!16s%2Fg%2F11lcm2xylw!19sChIJmX9q1K0v6hURWstXGK44YK4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%B0%D9%88%D9%82+%D9%84%D9%84%D8%B3%D9%8A%D8%AF%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15c203040f3c37e7:0x9de82f6b6d00a3b8!8m2!3d21.4974264!4d39.8834613!16s%2Fg%2F11qb3ycb_x!19sChIJ5zc8DwQDwhURuKMAbWsv6J0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%A7%D8%AC+%D8%A7%D8%B3%D8%AA%D8%B1%D8%AE%D8%A7%D8%A1+%D8%A7%D9%84%D8%B4%D9%84%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x157fe9d7dd736e49:0xb20c0584325bfad5!8m2!3d26.293123!4d44.7851226!16s%2Fg%2F11t24p9_v4!19sChIJSW5z3dfpfxUR1fpbMoQFDLI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%AD%D9%84%D8%A7%D9%82%D9%87+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e37913f3ed74929:0x13202e9854bb90a9!8m2!3d25.3378037!4d49.5536978!16s%2Fg%2F11kpnyb1tb!19sChIJKUnXPj-RNz4RqZC7VJguIBM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B2%D9%85%D8%B2%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c3cbf76e6efb7b:0x56e123d75595070f!8m2!3d21.4380383!4d39.248854!16s%2Fg%2F11gfd6djnp!19sChIJe_tubvfLwxURDweVVdcj4VY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%A7%D9%84%D8%AD%D8%B2%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15a5abb8cbf165fd:0xe6e6bae2cafcbdf7!8m2!3d26.6111321!4d37.9165036!16s%2Fg%2F11c4_yc4w4!19sChIJ_WXxy7irpRUR9738yuK65uY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%88%D9%86%D9%8A%D8%AA%D8%A7+%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%8A%D9%88%D9%85+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e83892afd6a1:0x4d35a57548f45573!8m2!3d26.2918038!4d50.2108847!16s%2Fg%2F11c1nd6kr_!19sChIJodavkjjoST4Rc1X0SHWlNU0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c3cde0788a0d5d:0xa254a6e6c42227e8!8m2!3d21.4703396!4d39.2660648!16s%2Fg%2F11fd44_8b9!19sChIJXQ2KeODNwxUR6CcixOamVKI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%AD%D9%84%D8%A7%D9%82%D8%A9+%D9%84%D9%85%D8%B3%D8%A9+%D9%85%D8%B1%D8%A7%D9%83%D8%B4%E2%80%AD/data=!4m7!3m6!1s0x3e49fdd2d7fb3765:0x42988e19a279dee2!8m2!3d26.422447!4d50.0462175!16s%2Fg%2F11h9p9bngr!19sChIJZTf719L9ST4R4t55ohmOmEI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Aatif+reena/data=!4m7!3m6!1s0x15c23dd7e8f11875:0xafaeb231270f845c!8m2!3d21.3420606!4d39.6268514!16s%2Fg%2F11l29hbjgb!19sChIJdRjx6Nc9whURXIQPJzGyrq8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%85%D8%B3%D8%A7%D8%A1+%D8%A7%D9%84%D8%AA%D9%85%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15c3d14e396c02e3:0xac189cdbd39a8622!8m2!3d21.6000578!4d39.2262511!16s%2Fg%2F11bzyywf2f!19sChIJ4wJsOU7RwxURIoaa09ucGKw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B5%D8%AF%D9%81+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15fb5f288fea7617:0x103956f02b2173e5!8m2!3d18.2081605!4d42.8141472!16s%2Fg%2F11y20g_q94!19sChIJF3bqjyhf-xUR5XMhK_BWORA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%B3%D9%84%D8%B7%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15fb5a2cc7c59dd3:0x75262c177ae6de4f!8m2!3d18.3019288!4d42.7460482!16s%2Fg%2F11f_1j588l!19sChIJ053Fxyxa-xURT97mehcsJnU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x1513dfe05790f7db:0xde22b2ac48fa9963!8m2!3d31.6703963!4d38.6719288!16s%2Fg%2F11gcf9l55n!19sChIJ2_eQV-DfExURY5n6SKyyIt4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D9%86%D8%A7%D8%B5%D8%B1+%D8%A8%D9%86+%D8%B9%D9%88%D8%A7%D8%AF+%D8%A8%D9%86+%D8%B9%D9%88%D8%B6+%D8%A7%D9%84%D8%B3%D8%A8%D9%8A%D8%B9%D9%8A+%D8%A7%D9%84%D8%B9%D9%86%D8%B2%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f04623158215d:0x28d74b36d3c697cb!8m2!3d24.6676539!4d46.7112852!16s%2Fg%2F11hc_fxc36!19sChIJXSFYMWIELz4Ry5fG0zZL1yg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d031a4a1010f:0x8d82a1b1793ad394!8m2!3d21.5492028!4d39.1891656!16s%2Fg%2F11dym81630!19sChIJDwGhpDHQwxURlNM6ebGhgo0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B3%D8%A7%D8%B1%D8%A9+%D8%A3%D8%AC%D9%85%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e35a1a9aad7bd8b:0xfe1e7763573a8379!8m2!3d27.0128609!4d49.6659078!16s%2Fg%2F11h_sv1b1d!19sChIJi73XqqmhNT4ReYM6V2N3Hv4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D9%86%D9%88%D8%B1%D9%87+%D9%85%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D8%AD%D8%A7%D8%B1%D8%AB%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f04f8dfa9aa7f:0xc0981bc86080caed!8m2!3d24.64721!4d46.706884!16s%2Fg%2F11f_243h83!19sChIJf6qp3_gELz4R7cqAYMgbmMA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B7%D9%88%D9%82+%D8%A7%D9%84%D9%8A%D8%A7%D8%B3%D9%85%D9%8A%D9%86+%D9%84%D9%84%D8%AA%D8%B2%D9%8A%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2e553e7507d745:0xa60e49aa0556dad9!8m2!3d24.8460002!4d46.8274464!16s%2Fg%2F11y3jjdm_l!19sChIJRdcHdT5VLj4R2dpWBapJDqY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%85%D8%A7%D8%B4%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15c3cf2ff04e8a67:0x30f2d93366ce367!8m2!3d21.5202768!4d39.2308587!16s%2Fg%2F11rwl06lvc!19sChIJZ4pO8C_PwxURZ-NsNpMtDwM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Moonlight+Salon/data=!4m7!3m6!1s0x3e2f1d4db9aaac2f:0xd531e2b7da7cf27!8m2!3d24.7100918!4d46.668652!16s%2Fg%2F11srysck58!19sChIJL6yquU0dLz4RJ8-nfSseUw0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%AE%D9%84%D9%88%D8%AF+%D8%A7%D9%84%D8%AD%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1583cb03aed090b9:0x3780dd70c26b9b81!8m2!3d25.8763735!4d43.4945127!16s%2Fg%2F11s63lwr8v!19sChIJuZDQrgPLgxURgZtrwnDdgDc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x3e49ff2d817ac863:0xcf2f093e79e45d38!8m2!3d26.4886667!4d50.0364869!16s%2Fg%2F11t86bxxfz!19sChIJY8h6gS3_ST4ROF3keT4JL88?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%84%D9%85%D8%B3%D8%A7%D8%AA+%D9%86%D8%AC%D8%AF%D9%8A%D8%A9+%D9%84%D9%84%D8%AA%D8%B2%D9%8A%D9%8A%D9%86+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157f5928e2e4df05:0x765c3327a2bbcd08!8m2!3d26.384882!4d43.954798!16s%2Fg%2F11tnxxg2lj!19sChIJBd_k4ihZfxURCM27oiczXHY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%A7%D8%A8%D9%8A%D9%84%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3dad00a3873:0x82086ad9416d8e7b!8m2!3d24.7788512!4d46.6648018!16s%2Fg%2F11rcqlxc4z!19sChIJczgK0NrjLj4Re45tQdlqCII?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Noe+Spa/data=!4m7!3m6!1s0x3e2ee353c4bc2dbb:0x783e5ee09671022e!8m2!3d24.7537777!4d46.6383915!16s%2Fg%2F11ptv2gmb6!19sChIJuy28xFPjLj4RLgJxluBePng?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B7%D9%84%D8%AA%D9%83+%D8%A7%D8%AD%D9%84%D9%89+%D9%84%D9%84%D8%AA%D8%B2%D9%8A%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdc757e0e03705:0x21732fcb5684a1bd!8m2!3d24.4263056!4d39.5023911!16s%2Fg%2F11v6kcv30g!19sChIJBTfg4FfHvRURvaGEVssvcyE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Saloon/data=!4m7!3m6!1s0x15b9061ce093855b:0xb4d03b7e9357a276!8m2!3d24.101221!4d38.0511221!16s%2Fg%2F11c59xjfzr!19sChIJW4WT4BwGuRURdqJXk3470LQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%84%D9%85%D8%B3%D8%A7%D8%AA+%D8%A3%D8%A8%D8%AD%D8%B1+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9+2%E2%80%AD/data=!4m7!3m6!1s0x15c1633ccfe8091f:0x131d0ecf6a63321f!8m2!3d21.7596875!4d39.0926875!16s%2Fg%2F11tkb2zx56!19sChIJHwnozzxjwRURHzJjas8OHRM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B9%D8%B3%D9%8A%D8%B1+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D8%B1%D8%AC%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15a9ad1d849508ed:0x283a35d3c6c8b1d0!8m2!3d28.3797339!4d36.5801063!16s%2Fg%2F11f61v9myz!19sChIJ7QiVhB2tqRUR0LHIxtM1Oig?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%AF%D8%B1%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15f02995125a23bf:0x535ffa67ffde05e7!8m2!3d19.99072!4d42.6021762!16s%2Fg%2F11sqkvcjk9!19sChIJvyNaEpUp8BUR5wXe_2f6X1M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%85%D8%B4%D8%A7%D9%87%D9%8A%D8%B1+%D9%84%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%B1%D8%AC%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c21b44a3e25d13:0x2c21682b86669477!8m2!3d21.3692328!4d39.7889414!16s%2Fg%2F11srktxgzq!19sChIJE13io0QbwhURd5RmhitoISw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Le+Salon/data=!4m7!3m6!1s0x15c3c55e62331963:0xc0216185516d0654!8m2!3d21.548313!4d39.148688!16s%2Fg%2F11l1dc8hf7!19sChIJYxkzYl7FwxURVAZtUYVhIcA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D8%B1%D9%81%D8%A7%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15f029ee5015f6eb:0x7c550da6f0582a88!8m2!3d20.0049968!4d42.6158028!16s%2Fg%2F11kjy9plrl!19sChIJ6_YVUO4p8BURiCpY8KYNVXw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%A7%D9%84%D9%85%D8%B3%D8%AA%D9%88%D9%89+%D8%A7%D9%84%D8%B1%D8%A7%D9%82%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3282e9737f7:0x906d80964714486b!8m2!3d24.7786911!4d46.6627241!16s%2Fg%2F11gfh_s4s8!19sChIJ9zeXLijjLj4Ra0gUR5aAbZA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%A7%D8%AC+%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D8%B1%D8%A7%D8%AD%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b0a78a7a14fde1:0x49e525333d27f790!8m2!3d25.0325537!4d37.2735616!16s%2Fg%2F11sb5t9096!19sChIJ4f0UeoqnsBURkPcnPTMl5Uk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%A7%D8%AC+%D8%A7%D9%84%D9%82%D9%85%D8%A9+%D8%A7%D9%84%D8%AE%D9%85%D8%A7%D8%B3%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49c28232738377:0x48b526b7dfe1753b!8m2!3d26.4680704!4d50.0864626!16s%2Fg%2F11gbz9x5hn!19sChIJd4NzMoLCST4RO3Xh37cmtUg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A5%D8%A8%D8%AF%D8%A7%D8%B9+%D8%A7%D9%84%D8%A3%D9%86%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e1e5f599cbadfa1:0xda03d2bbaee0a6ed!8m2!3d20.4708687!4d45.5818449!16s%2Fg%2F11v0380pns!19sChIJod-6nFlfHj4R7abgrrvSA9o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D8%A3%D8%B1%D9%82%D9%89+%D8%A7%D9%84%D9%84%D9%85%D8%B3%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fb5b30a21bdfff:0xbdb5bdb624ec6ef2!8m2!3d18.3236765!4d42.7230111!16s%2Fg%2F11t_z1w_wh!19sChIJ_98bojBb-xUR8m7sJLa9tb0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%84%D8%A7%D9%86%D8%A7+%D9%84%D9%84%D8%B3%D9%8A%D8%AF%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15bdb91c30156579:0xc174ec2537e6b671!8m2!3d24.4615312!4d39.5326457!16s%2Fg%2F11p11gq1w5!19sChIJeWUVMBy5vRURcbbmNyXsdME?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%82%D8%B5+%D8%A7%D9%84%D8%A3%D9%81%D8%B6%D9%84+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f21aab8392333:0x2c70c94a2aecfdb4!8m2!3d24.6563495!4d46.5139544!16s%2Fg%2F11sd_xxjrw!19sChIJMyM5uKohLz4RtP3sKkrJcCw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Jamal/data=!4m7!3m6!1s0x3e2f031cd5f75c21:0xe7fc9910d269ac8!8m2!3d24.6872487!4d46.7227918!16s%2Fg%2F11h_8t2x6t!19sChIJIVz31RwDLz4RyJomDZHJfw4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%A7%D8%A8%D8%AA%D8%B3%D8%A7%D9%85+%D9%85%D8%AD%D9%85%D8%AF+%D8%AD%D9%85%D8%AF+%D9%85%D8%B1%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0515c36f76c1:0xfa7d31d3cacbedcd!8m2!3d24.6208368!4d46.6913202!16s%2Fg%2F11f3njy04k!19sChIJwXZvwxUFLz4Rze3LytMxffo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%82%D9%85%D8%A9+%D8%A7%D9%84%D9%81%D9%86+%D9%84%D9%84%D8%AE%D9%8A%D8%A7%D8%B7%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AA%D8%AC%D9%85%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15fb5b3a7d79871b:0xecf34153af4a9d96!8m2!3d18.2963024!4d42.7430064!16s%2Fg%2F11fmn_9vs7!19sChIJG4d5fTpb-xURlp1Kr1NB8-w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B1%D9%88%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D8%B4%D8%B9%D8%B1+%D9%84%D9%84%D8%B1%D8%AC%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e49fb0040d57045:0x91fff1fca9fa45c1!8m2!3d26.4418347!4d50.1223537!16s%2Fg%2F11vrchr20s!19sChIJRXDVQAD7ST4RwUX6qfzx_5E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D8%B3%D8%A8%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e2f06df0f9f3587:0x78a91f8e5708aa62!8m2!3d24.6911925!4d46.7845564!16s%2Fg%2F11c2kj8lyn!19sChIJhzWfD98GLz4RYqoIV44fqXg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%B4%D8%A8%D8%A7%D8%A8+%D8%A7%D9%84%D8%B1%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x1607f3ddbcc701e3:0x27f00344beee9840!8m2!3d16.898467!4d42.837631!16s%2Fg%2F11rj4s9x77!19sChIJ4wHHvN3zBxYRQJjuvkQD8Cc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%84%D9%85%D8%B3%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e80b3c6df7ac57:0x18e48e3023ec23f3!8m2!3d20.1505652!4d40.2791661!16s%2Fg%2F11tnnw9nsw!19sChIJV6z3bTwL6BUR8yPsIzCO5Bg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%AD%D8%B5%D8%A9+%D8%A8%D9%86%D8%AA+%D9%84%D8%A7%D9%81%D9%8A+%D8%A7%D9%84%D9%85%D8%B8%D9%8A%D8%A8%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f098f77e62d29:0x347f3302f956e54d!8m2!3d24.5660926!4d46.796903!16s%2Fg%2F11gfcylf89!19sChIJKS3md48JLz4RTeVW-QIzfzQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A2%D9%85+%D8%AA%D9%88%D8%A7+Aime+Toi+salon%26spa%E2%80%AD/data=!4m7!3m6!1s0x3e2f032c22019a79:0x5746f6126021464!8m2!3d24.7449889!4d46.7034258!16s%2Fg%2F11q3r_clg9!19sChIJeZoBIiwDLz4RZBQCJmFvdAU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%81%D8%AE%D8%A7%D9%85%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x1607e32f9103fad7:0xc9fdd49fbd82ef5c!8m2!3d16.8943566!4d42.5578899!16s%2Fg%2F11kh_hbtxm!19sChIJ1_oDkS_jBxYRXO-CvZ_U_ck?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+RAM+%D8%B1%D8%A7%D9%85+%D9%84%D9%84%D8%B9%D9%86%D8%A7%D9%8A%D9%87+%D8%A8%D8%A7%D9%84%D8%B1%D8%AC%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1607fd8041b7a70d:0x3a2b6ac0e8285d7f!8m2!3d16.9221139!4d42.5543911!16s%2Fg%2F11l5p4ycph!19sChIJDae3QYD9BxYRf10o6MBqKzo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D9%83%D9%88%D9%83%D8%A8+%D8%A7%D9%84%D8%AC%D9%85%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15c3d1937dd78e89:0xce232d314e10ff1c!8m2!3d21.5904041!4d39.2027024!16s%2Fg%2F11q41n28lh!19sChIJiY7XfZPRwxURHP8QTjEtI84?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%A7%D8%B1%D9%85%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f01e91b13c1bb:0x7a52484e3166c9f5!8m2!3d24.7453278!4d46.7693441!16s%2Fg%2F11rz76xz50!19sChIJu8ETG-kBLz4R9clmMU5IUno?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D8%B1%D9%88%D8%B9%D8%A9+%D8%A7%D9%84%D8%AE%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f1b7c589c4dbd:0x18adb8d5a760ba0d!8m2!3d24.5967124!4d46.6304991!16s%2Fg%2F11trw6s5vf!19sChIJvU2cWHwbLz4RDbpgp9W4rRg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/VIP+64/data=!4m7!3m6!1s0x3e350fcafd97e975:0x6eeba67f79bd6793!8m2!3d27.1013309!4d49.5749007!16s%2Fg%2F11t_ts2cgk!19sChIJdemX_coPNT4Rk2e9eX-m624?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D9%83%D8%A7%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x1510077b57b74fa3:0x943f963f98754463!8m2!3d31.3239135!4d37.3352954!16s%2Fg%2F11v0lrgk5n!19sChIJo0-3V3sHEBURY0R1mD-WP5Q?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D8%AD%D8%B1%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15e354973ecf564f:0x8b9f6de25c028397!8m2!3d18.2151421!4d42.5273831!16s%2Fg%2F11gcnjblgh!19sChIJT1bPPpdU4xURl4MCXOJtn4s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%A7%D9%84%D9%88%D8%B5%D9%8A%D9%81%D9%87+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bd959892c4a84f:0x5b4e0f8deb574ea4!8m2!3d24.4596049!4d39.6534371!16s%2Fg%2F11q9vrxf08!19sChIJT6jEkpiVvRURpE5X640PTls?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%84%D8%A7%D9%82+%D9%88%D8%A7%D8%AD%D8%A9+%D8%BA%D8%B1%D8%A8+%D9%84%D9%84%D8%AD%D9%84%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f054384ab31c1:0x207612aea0749df1!8m2!3d24.6196739!4d46.6790684!16s%2Fg%2F11t9tckft8!19sChIJwTGrhEMFLz4R8Z10oK4SdiA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+Salon+D%26S%E2%80%AD/data=!4m7!3m6!1s0x3e2f1dc63a60b851:0x255b9cdcb54cfbdb!8m2!3d24.6994357!4d46.6432519!16s%2Fg%2F11rkd0d2b2!19sChIJUbhgOsYdLz4R2_tMtdycWyU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B4%D8%BA%D9%84+%D9%81%D8%B1%D8%AD%D8%AA%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f1d2c69ecbcdb:0x5d1e8abda3a9ec6!8m2!3d24.7158626!4d46.6814084!16s%2Fg%2F1td169px!19sChIJ27zsaSwdLz4Rxp462qvo0QU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Sara+Saloon/data=!4m7!3m6!1s0x3e35a1de12ede997:0x4257217026e923dd!8m2!3d27.0115436!4d49.6618662!16s%2Fg%2F11fkvs0_jk!19sChIJl-ntEt6hNT4R3SPpJnAhV0I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D9%88%D9%86+%D8%AD%D9%84%D8%A7%D9%82%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15f02b1b6c17d36f:0xc15f0fc9a6893050!8m2!3d20.0344641!4d42.6164315!16s%2Fg%2F11s2xw5dzc!19sChIJb9MXbBsr8BURUDCJpskPX8E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>مشغل هدى ابراهيم</t>
-  </si>
-  <si>
-    <t>مشغل بوابة الابداع للتزين النسائي</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>مشغل هدى ابراه...</t>
+  </si>
+  <si>
+    <t>مشغل بوابة الا...</t>
   </si>
   <si>
     <t>مشغل جدة</t>
@@ -347,19 +56,19 @@
     <t>مشغل انجل</t>
   </si>
   <si>
-    <t>مشغل نارين للتزين النسائي</t>
-  </si>
-  <si>
-    <t>حلاق رجالي مؤسسة منيرة مبارك 2</t>
-  </si>
-  <si>
-    <t>صالون أنامل القص للحلاقة</t>
+    <t>مشغل نارين للت...</t>
+  </si>
+  <si>
+    <t>حلاق رجالي مؤس...</t>
+  </si>
+  <si>
+    <t>صالون أنامل ال...</t>
   </si>
   <si>
     <t>صالون وليد</t>
   </si>
   <si>
-    <t>حلاق رونق الطفل</t>
+    <t>حلاق رونق الطف...</t>
   </si>
   <si>
     <t>صالون اغادير</t>
@@ -368,43 +77,43 @@
     <t>30 ثلاثين</t>
   </si>
   <si>
-    <t>الصالون المغربي</t>
-  </si>
-  <si>
-    <t>صالون الاسطورة الذهبي</t>
+    <t>الصالون المغرب...</t>
+  </si>
+  <si>
+    <t>صالون الاسطورة...</t>
   </si>
   <si>
     <t>اعتني بنفسك</t>
   </si>
   <si>
-    <t>LOLO TBOUK makeup article</t>
-  </si>
-  <si>
-    <t>صالون للتجميل النسائي</t>
+    <t>LOLO TBOUK mak...</t>
+  </si>
+  <si>
+    <t>صالون للتجميل ...</t>
   </si>
   <si>
     <t>انت المدار</t>
   </si>
   <si>
-    <t>Mens Barber shop</t>
-  </si>
-  <si>
-    <t>مشغل همسة انوثه</t>
-  </si>
-  <si>
-    <t>مساج حمام مغربي (بخار ساونا)/ مغربي سنتر</t>
-  </si>
-  <si>
-    <t>صالون ليالي الفيحاء</t>
+    <t>Mens Barber sh...</t>
+  </si>
+  <si>
+    <t>مشغل همسة انوث...</t>
+  </si>
+  <si>
+    <t>مساج حمام مغرب...</t>
+  </si>
+  <si>
+    <t>صالون ليالي ال...</t>
   </si>
   <si>
     <t>مؤسسة هنيا</t>
   </si>
   <si>
-    <t>صالون لمسة أشجان للتجميل النسائي</t>
-  </si>
-  <si>
-    <t>منتجع قولدن هورسز بالفضول</t>
+    <t>صالون لمسة أشج...</t>
+  </si>
+  <si>
+    <t>منتجع قولدن هو...</t>
   </si>
   <si>
     <t>منتجع السدرة</t>
@@ -419,34 +128,34 @@
     <t>Nails.talk</t>
   </si>
   <si>
-    <t>La Fontaine salon and massage spa for Man</t>
-  </si>
-  <si>
-    <t>صالون الروش للحلاقة</t>
-  </si>
-  <si>
-    <t>صالون (مشغل) هلا جويل للتجميل النسائي</t>
-  </si>
-  <si>
-    <t>صالون حلاق - حلاقه داخل فندق ميدان</t>
-  </si>
-  <si>
-    <t>استراحة ابراهيم السعد المحيميد</t>
-  </si>
-  <si>
-    <t>مشغل اصداف سنتر</t>
-  </si>
-  <si>
-    <t>صالون وفاء قلام | Wafa Glam</t>
-  </si>
-  <si>
-    <t>مشغل ذوق للسيدات</t>
-  </si>
-  <si>
-    <t>مساج استرخاء الشلال</t>
-  </si>
-  <si>
-    <t>صالون الحلاقه الرجاليه</t>
+    <t>La Fontaine sa...</t>
+  </si>
+  <si>
+    <t>صالون الروش لل...</t>
+  </si>
+  <si>
+    <t>صالون (مشغل) ه...</t>
+  </si>
+  <si>
+    <t>صالون حلاق - ح...</t>
+  </si>
+  <si>
+    <t>استراحة ابراهي...</t>
+  </si>
+  <si>
+    <t>مشغل اصداف سنت...</t>
+  </si>
+  <si>
+    <t>صالون وفاء قلا...</t>
+  </si>
+  <si>
+    <t>مشغل ذوق للسيد...</t>
+  </si>
+  <si>
+    <t>مساج استرخاء ا...</t>
+  </si>
+  <si>
+    <t>صالون الحلاقه ...</t>
   </si>
   <si>
     <t>صالون زمزم</t>
@@ -455,22 +164,22 @@
     <t>حلاق الحزام</t>
   </si>
   <si>
-    <t>بونيتا مركز اليوم النسائي</t>
+    <t>بونيتا مركز ال...</t>
   </si>
   <si>
     <t>صالون الخياله</t>
   </si>
   <si>
-    <t>صالون حلاقة لمسة مراكش</t>
+    <t>صالون حلاقة لم...</t>
   </si>
   <si>
     <t>Aatif reena</t>
   </si>
   <si>
-    <t>صالون مساء التميز</t>
-  </si>
-  <si>
-    <t>صالون صدف الجنوب</t>
+    <t>صالون مساء الت...</t>
+  </si>
+  <si>
+    <t>صالون صدف الجن...</t>
   </si>
   <si>
     <t>صالون السلطان</t>
@@ -479,34 +188,34 @@
     <t>صالون السلام</t>
   </si>
   <si>
-    <t>حلاق ناصر بن عواد بن عوض السبيعي العنزي</t>
-  </si>
-  <si>
-    <t>صالون النخيل للحلاقة</t>
-  </si>
-  <si>
-    <t>صالون سارة أجمل</t>
-  </si>
-  <si>
-    <t>حلاق نوره محمد الحارثي</t>
-  </si>
-  <si>
-    <t>صالون طوق الياسمين للتزيين النسائي</t>
+    <t>حلاق ناصر بن ع...</t>
+  </si>
+  <si>
+    <t>صالون النخيل ل...</t>
+  </si>
+  <si>
+    <t>صالون سارة أجم...</t>
+  </si>
+  <si>
+    <t>حلاق نوره محمد...</t>
+  </si>
+  <si>
+    <t>صالون طوق اليا...</t>
   </si>
   <si>
     <t>صالون ماشا</t>
   </si>
   <si>
-    <t>Moonlight Salon</t>
-  </si>
-  <si>
-    <t>حلاق خلود الحربي</t>
+    <t>Moonlight Salo...</t>
+  </si>
+  <si>
+    <t>حلاق خلود الحر...</t>
   </si>
   <si>
     <t>صالون المميز</t>
   </si>
   <si>
-    <t>مركز لمسات نجدية للتزيين النسائي</t>
+    <t>مركز لمسات نجد...</t>
   </si>
   <si>
     <t>لابيلا</t>
@@ -515,91 +224,91 @@
     <t>Noe Spa</t>
   </si>
   <si>
-    <t>مركز طلتك احلى للتزيين</t>
+    <t>مركز طلتك احلى...</t>
   </si>
   <si>
     <t>Saloon</t>
   </si>
   <si>
-    <t>صالون لمسات أبحر للحلاقة الرجالية 2</t>
-  </si>
-  <si>
-    <t>صالون عسير للحلاقة الرجالية</t>
+    <t>صالون لمسات أب...</t>
+  </si>
+  <si>
+    <t>صالون عسير للح...</t>
   </si>
   <si>
     <t>مشغل درر</t>
   </si>
   <si>
-    <t>صالون مشاهير للعناية بالرجل</t>
+    <t>صالون مشاهير ل...</t>
   </si>
   <si>
     <t>Le Salon</t>
   </si>
   <si>
-    <t>مركز ارفاة النسائي</t>
-  </si>
-  <si>
-    <t>حلاق المستوى الراقي</t>
-  </si>
-  <si>
-    <t>مساج وقت الراحه</t>
-  </si>
-  <si>
-    <t>مساج القمة الخماسية</t>
-  </si>
-  <si>
-    <t>صالون إبداع الأناقة</t>
-  </si>
-  <si>
-    <t>مشغل أرقى اللمسات</t>
-  </si>
-  <si>
-    <t>صالون لانا للسيدات</t>
-  </si>
-  <si>
-    <t>المقص الأفضل للحلاقة</t>
+    <t>مركز ارفاة الن...</t>
+  </si>
+  <si>
+    <t>حلاق المستوى ا...</t>
+  </si>
+  <si>
+    <t>مساج وقت الراح...</t>
+  </si>
+  <si>
+    <t>مساج القمة الخ...</t>
+  </si>
+  <si>
+    <t>صالون إبداع ال...</t>
+  </si>
+  <si>
+    <t>مشغل أرقى اللم...</t>
+  </si>
+  <si>
+    <t>صالون لانا للس...</t>
+  </si>
+  <si>
+    <t>المقص الأفضل ل...</t>
   </si>
   <si>
     <t>Jamal</t>
   </si>
   <si>
-    <t>حلاق ابتسام محمد حمد مرضي</t>
-  </si>
-  <si>
-    <t>قمة الفن للخياطة النسائية والتجميل</t>
-  </si>
-  <si>
-    <t>صالون روائع الشعر للرجال</t>
-  </si>
-  <si>
-    <t>مركز وقت السبا</t>
-  </si>
-  <si>
-    <t>صالون شباب الريف</t>
-  </si>
-  <si>
-    <t>صالون لمسات للحلاقه الرجاليه</t>
-  </si>
-  <si>
-    <t>حلاق حصة بنت لافي المظيبري</t>
-  </si>
-  <si>
-    <t>صالون آم توا Aime Toi salon&amp;spa</t>
-  </si>
-  <si>
-    <t>صالون فخامة النسيم</t>
-  </si>
-  <si>
-    <t>صالون RAM رام للعنايه بالرجل</t>
-  </si>
-  <si>
-    <t>صالون كوكب الجمال</t>
+    <t>حلاق ابتسام مح...</t>
+  </si>
+  <si>
+    <t>قمة الفن للخيا...</t>
+  </si>
+  <si>
+    <t>صالون روائع ال...</t>
+  </si>
+  <si>
+    <t>مركز وقت السبا...</t>
+  </si>
+  <si>
+    <t>صالون شباب الر...</t>
+  </si>
+  <si>
+    <t>صالون لمسات لل...</t>
+  </si>
+  <si>
+    <t>حلاق حصة بنت ل...</t>
+  </si>
+  <si>
+    <t>صالون آم توا A...</t>
+  </si>
+  <si>
+    <t>صالون فخامة ال...</t>
+  </si>
+  <si>
+    <t>صالون RAM رام ...</t>
+  </si>
+  <si>
+    <t>صالون كوكب الج...</t>
   </si>
   <si>
     <t>حلاق ارمال</t>
   </si>
   <si>
-    <t>حلاق روعة الخيال</t>
+    <t>حلاق روعة الخي...</t>
   </si>
   <si>
     <t>VIP 64</t>
@@ -611,16 +320,16 @@
     <t>صالون الحرير</t>
   </si>
   <si>
-    <t>صالون الوصيفه النسائي</t>
-  </si>
-  <si>
-    <t>حلاق واحة غرب للحلاقة</t>
-  </si>
-  <si>
-    <t>صالون Salon D&amp;S</t>
-  </si>
-  <si>
-    <t>مشغل دار فرحتي للتزيين النسائي و الخياطة</t>
+    <t>صالون الوصيفه ...</t>
+  </si>
+  <si>
+    <t>حلاق واحة غرب ...</t>
+  </si>
+  <si>
+    <t>صالون Salon D&amp;...</t>
+  </si>
+  <si>
+    <t>مشغل دار فرحتي...</t>
   </si>
   <si>
     <t>Sara Saloon</t>
@@ -635,13 +344,13 @@
     <t>صالون حلاقة</t>
   </si>
   <si>
-    <t>أخصائي مساج رياضي</t>
-  </si>
-  <si>
-    <t>منتجع ونادي صحي</t>
-  </si>
-  <si>
-    <t>صالون عناية بالأظافر</t>
+    <t>أخصائي مساج ري...</t>
+  </si>
+  <si>
+    <t>منتجع ونادي صح...</t>
+  </si>
+  <si>
+    <t>صالون عناية با...</t>
   </si>
   <si>
     <t>منتجع صحي</t>
@@ -863,298 +572,298 @@
     <t>44</t>
   </si>
   <si>
-    <t>مقداد بن عمرو، الشراع، الخبر 34718، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3718 حي، جدة 22535، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>87H8+23V، الفضيلة، جدة 22543، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G25+8FQ، الضباب، أبها 62522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7659، الشرفية، 2158، أبها 62542، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي جرير،, REJA7717, 7717 Fatimah Al Zahraa, 3993،, الرياض 12837، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Balabk, غرناطة، الرياض 13242، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7C9H+MM5، شارع الغزالي، حي نخب، الربيع، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7190 طريق عمر بن عبدالعزيز، حي الضاحي، بريدة 52345، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F366+59X، شارع حبيب المظاهر ، حي المحمدية، المحمدية، الدمام 32433، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المدينة المنورة، القافلة، خميس مشيط 62454، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>H6MJ+8JJ، حي السامر، الربيع، جدة 23462، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع حراء، الزهراء، جدة 23522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك سعود، الدفاع، المدينة المنورة 42377، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مروج الأمير، تبوك 47315، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JHV5+C29، ظهرة لبن، الرياض 13782، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شهار، الطائف 26513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6769 شارع صفوان بن أسيد، القادسية, 3883، الدمام 32247، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7868، الصفراء، 2879, بريدة 52382، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشارع الأصفر، الروضة، عرعر 73311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2884 طريق الفيحاء، الدفي، 6523 طريق الفيحاء،، الجبيل 35811، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي حطين،، 5283 حنيف بن سعيد، RRHA5283، 7387،، الرياض 13513، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>أم المؤمنين صفية، النسيم، جدة 23234، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9MFQ+J8M، الهفوف‎ 36371، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهفوف‎ 36364، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الرئيسي، مدخل البطالية، الهفوف‎ 36347، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخليج، الرياض 13223، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع موسى بن نصير، الراكة الجنوبية، الخبر 34227، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الحمراء، Palestine street, جدة 24313، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HGCP+WF5، طويق، الرياض 14928، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5167 ينبع 46429 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CV93+2CJ، Aziziyah Road، مكة 24235، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>امهات الذيابه، البكيرية 52722، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9083 اليمامة، الربيع، 3632،، خميس مشيط 62411، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الجوهرة - البوليفارد، الحوية، الطائف 26559، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3692 عطيه القرضي رضي الله عنه، حي العسيلة، مكة المكرمة 24423 7009، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7QVP+722، طريق الملك فهد، الفيصلية،، الزلفي المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8HQ3+4FG، النايفية، الهفوف‎ 36441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الجوهرة،، الجوهرة، جدة 22417، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JW68+FJ2، العلا 43542، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7410 الامير بدر، 2889، حي الخبر الشمالية، 2889، الخبر 34428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F7C8+4CP، شارع الاربعين، حي الروابي،، جدة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع عمر بن الخطاب، أحد، الدمام 32264، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8JRG+RPH، الملك فهد، مكة 24561، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2532 المنار، جدة 23463، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3268 جنوبا الى احد رفيده و شمالا الى خميس مشيط، صفوان، 6683، أحد رفيدة 62447، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8P2W+QCF، أم سرار، النخيل، خميس مشيط 62462، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MMCC+5Q3، سلطانة، طريف‎ 75312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MP96+3G7 حي, شارع الشيخ عبدالرحمن بن حسن، الوزارات، الرياض 12626، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8182 العمران، 3581، جدة 23333، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>EAST STREET 895, الملك فيصل الشمالي، الجبيل البلد، الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JPW4+VQJ، شارع الأمير عبدالله بن جلوي، حي المربع، المربع، الرياض 12631، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>سلطان بن نمر، الرمال، الرياض 13265، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G6CJ+489، النسيم، جدة 22230، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق العروبة، العليا، الرياض 12333، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>VFGV+GRR، شارع أبي بكر الصديق، حي المطار، الرس 58883، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>EMMA2792، 2792 ابو موسى الانصاري، 7024، حي الخصاب،، سيهات‎ 32452،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك خالد، حي الافق، بريدة 52385، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QMH7+GWV، طريق الملك عبدالعزيز، الفرعي،،،, النفل،،, الرياض 13312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع التخصصي، النخيل، الرياض 12384، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3245 صيفي بن نافع، حي العزيزية، DMSA6251، 6251، المدينة المنورة 42377، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4456، المشهد، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>39.0927116، Q35V+V3W الشراع، جدة 21.7597395، جدة 23814، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9HHJ+V2X, شارع سليمان السديري، حي, العليا، تبوك 47911، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>XJR2+7VM، الفهد، بيشة 71791، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ولي العهد، الشوقيه، مكة 21955، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، G4XX+8FHعبدالله المطري، الأندلس، جدة 23322، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ALAA7187، 3549 أسعد بن زراره، حي الخزامى، 7187، بيشة 67711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع محمد المقدمي، الغدير، الرياض 13311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الزهد، 7232،، البطحاء،، KUAE2926، 2926، املج 48313،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، طريق الكورنيش، الحمراء، الدمام 32422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2126 شارع الملك خالد، حي الروضة، OSAA8009، 8009، السليل 18211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابو بكر الصديق، المعمورة، خميس مشيط 62458، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 3593 شفيق بن سلمه، الدفاع، المدينة المنورة 42374 7664، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MG47+GHP، المهدية، الرياض 13754، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MPPF+V4V، Unnamed Road، الضباط، الرياض 12623، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JMCR+8GP، الأمير سليمان بن محمد بن سعود، الجرادية، البديعة، الرياض 12747، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5666 ام سرار خميس مشيط 62461 5666، خميس مشيط 62411، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الملك سعود بن عبد العزيز، المزروعية، الدمام 48754، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3114 الزبير بن العوام، الروابي، الرياض 14215، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>VRXQ+93R، أبو عريش 84323، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشاميه، الليث 28429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HQ8W+CQJ, شارع ابن حجر - حي, الدار البيضاء، الرياض 14517، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابو بكر، حي النزهة ،طريق الملك عبدالله تقاطع، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>VHV5+P5R، شارع حمد الجاسر، جازان 82723، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير محمد بن عبدالعزيز، الشاطيء، جازان 82511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7178 راشد الحبسي, As Safa District, 3121، جدة 23452، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PQW9+4PQ حي، حاتم الطائي، الروضة، الرياض 13213، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ظهرة البديعة، الرياض 77267، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4625 شارع 62، حي الحويلات, EJAA7754، 7754, الجبيل 35718، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>88FP+H47 حي، المطار، القريات 77454، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G8G+3X2، الربوة، أبها 62523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الاسكان،، المدينة المنورة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JM9H+VJ8، شارع سماحة الشيخ عبدالعزيز بن باز، البديعة، الرياض 12748، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق العروبة الفرعي، أم الحمام الغربي، الرياض 12328، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2633 طريق العروبة، العليا، الرياض 12244، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8387 المدرسة، 8387, 4931, الجبيل 35514، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8109 شارع الرياض، 2316، النسيم،، بيشة 67841،، المملكة العربية السعودية</t>
+    <t>مقداد بن عمرو،...</t>
+  </si>
+  <si>
+    <t>3718 حي، جدة 2...</t>
+  </si>
+  <si>
+    <t>87H8+23V، الفض...</t>
+  </si>
+  <si>
+    <t>6G25+8FQ، الضب...</t>
+  </si>
+  <si>
+    <t>7659، الشرفية،...</t>
+  </si>
+  <si>
+    <t>حي جرير،, REJA...</t>
+  </si>
+  <si>
+    <t>Balabk, غرناطة...</t>
+  </si>
+  <si>
+    <t>7C9H+MM5، شارع...</t>
+  </si>
+  <si>
+    <t>7190 طريق عمر ...</t>
+  </si>
+  <si>
+    <t>F366+59X، شارع...</t>
+  </si>
+  <si>
+    <t>المدينة المنور...</t>
+  </si>
+  <si>
+    <t>H6MJ+8JJ، حي ا...</t>
+  </si>
+  <si>
+    <t>شارع حراء، الز...</t>
+  </si>
+  <si>
+    <t>طريق الملك سعو...</t>
+  </si>
+  <si>
+    <t>مروج الأمير، ت...</t>
+  </si>
+  <si>
+    <t>JHV5+C29، ظهرة...</t>
+  </si>
+  <si>
+    <t>شهار، الطائف 2...</t>
+  </si>
+  <si>
+    <t>6769 شارع صفوا...</t>
+  </si>
+  <si>
+    <t>7868، الصفراء،...</t>
+  </si>
+  <si>
+    <t>الشارع الأصفر،...</t>
+  </si>
+  <si>
+    <t>2884 طريق الفي...</t>
+  </si>
+  <si>
+    <t>حي حطين،، 5283...</t>
+  </si>
+  <si>
+    <t>أم المؤمنين صف...</t>
+  </si>
+  <si>
+    <t>9MFQ+J8M، الهف...</t>
+  </si>
+  <si>
+    <t>الهفوف‎ 36364،...</t>
+  </si>
+  <si>
+    <t>الرئيسي، مدخل ...</t>
+  </si>
+  <si>
+    <t>الخليج، الرياض...</t>
+  </si>
+  <si>
+    <t>شارع موسى بن ن...</t>
+  </si>
+  <si>
+    <t>الحمراء، Pales...</t>
+  </si>
+  <si>
+    <t>HGCP+WF5، طويق...</t>
+  </si>
+  <si>
+    <t>5167 ينبع 4642...</t>
+  </si>
+  <si>
+    <t>CV93+2CJ، Aziz...</t>
+  </si>
+  <si>
+    <t>امهات الذيابه،...</t>
+  </si>
+  <si>
+    <t>9083 اليمامة، ...</t>
+  </si>
+  <si>
+    <t>الجوهرة - البو...</t>
+  </si>
+  <si>
+    <t>3692 عطيه القر...</t>
+  </si>
+  <si>
+    <t>7QVP+722، طريق...</t>
+  </si>
+  <si>
+    <t>8HQ3+4FG، النا...</t>
+  </si>
+  <si>
+    <t>الجوهرة،، الجو...</t>
+  </si>
+  <si>
+    <t>JW68+FJ2، العل...</t>
+  </si>
+  <si>
+    <t>7410 الامير بد...</t>
+  </si>
+  <si>
+    <t>F7C8+4CP، شارع...</t>
+  </si>
+  <si>
+    <t>شارع عمر بن ال...</t>
+  </si>
+  <si>
+    <t>8JRG+RPH، المل...</t>
+  </si>
+  <si>
+    <t>2532 المنار، ج...</t>
+  </si>
+  <si>
+    <t>3268 جنوبا الى...</t>
+  </si>
+  <si>
+    <t>8P2W+QCF، أم س...</t>
+  </si>
+  <si>
+    <t>MMCC+5Q3، سلطا...</t>
+  </si>
+  <si>
+    <t>MP96+3G7 حي, ش...</t>
+  </si>
+  <si>
+    <t>8182 العمران، ...</t>
+  </si>
+  <si>
+    <t>EAST STREET 89...</t>
+  </si>
+  <si>
+    <t>JPW4+VQJ، شارع...</t>
+  </si>
+  <si>
+    <t>سلطان بن نمر، ...</t>
+  </si>
+  <si>
+    <t>G6CJ+489، النس...</t>
+  </si>
+  <si>
+    <t>طريق العروبة، ...</t>
+  </si>
+  <si>
+    <t>VFGV+GRR، شارع...</t>
+  </si>
+  <si>
+    <t>EMMA2792، 2792...</t>
+  </si>
+  <si>
+    <t>طريق الملك خال...</t>
+  </si>
+  <si>
+    <t>QMH7+GWV، طريق...</t>
+  </si>
+  <si>
+    <t>شارع التخصصي، ...</t>
+  </si>
+  <si>
+    <t>3245 صيفي بن ن...</t>
+  </si>
+  <si>
+    <t>4456، المشهد، ...</t>
+  </si>
+  <si>
+    <t>39.0927116، Q3...</t>
+  </si>
+  <si>
+    <t>9HHJ+V2X, شارع...</t>
+  </si>
+  <si>
+    <t>XJR2+7VM، الفه...</t>
+  </si>
+  <si>
+    <t>ولي العهد، الش...</t>
+  </si>
+  <si>
+    <t>حي، G4XX+8FHعب...</t>
+  </si>
+  <si>
+    <t>ALAA7187، 3549...</t>
+  </si>
+  <si>
+    <t>شارع محمد المق...</t>
+  </si>
+  <si>
+    <t>شارع الزهد، 72...</t>
+  </si>
+  <si>
+    <t>حي، طريق الكور...</t>
+  </si>
+  <si>
+    <t>2126 شارع المل...</t>
+  </si>
+  <si>
+    <t>ابو بكر الصديق...</t>
+  </si>
+  <si>
+    <t>حي, 3593 شفيق ...</t>
+  </si>
+  <si>
+    <t>MG47+GHP، المه...</t>
+  </si>
+  <si>
+    <t>MPPF+V4V، Unna...</t>
+  </si>
+  <si>
+    <t>JMCR+8GP، الأم...</t>
+  </si>
+  <si>
+    <t>5666 ام سرار خ...</t>
+  </si>
+  <si>
+    <t>حي الملك سعود ...</t>
+  </si>
+  <si>
+    <t>3114 الزبير بن...</t>
+  </si>
+  <si>
+    <t>VRXQ+93R، أبو ...</t>
+  </si>
+  <si>
+    <t>الشاميه، الليث...</t>
+  </si>
+  <si>
+    <t>HQ8W+CQJ, شارع...</t>
+  </si>
+  <si>
+    <t>ابو بكر، حي ال...</t>
+  </si>
+  <si>
+    <t>VHV5+P5R، شارع...</t>
+  </si>
+  <si>
+    <t>طريق الامير مح...</t>
+  </si>
+  <si>
+    <t>7178 راشد الحب...</t>
+  </si>
+  <si>
+    <t>PQW9+4PQ حي، ح...</t>
+  </si>
+  <si>
+    <t>ظهرة البديعة، ...</t>
+  </si>
+  <si>
+    <t>4625 شارع 62، ...</t>
+  </si>
+  <si>
+    <t>88FP+H47 حي، ا...</t>
+  </si>
+  <si>
+    <t>6G8G+3X2، الرب...</t>
+  </si>
+  <si>
+    <t>الاسكان،، المد...</t>
+  </si>
+  <si>
+    <t>JM9H+VJ8، شارع...</t>
+  </si>
+  <si>
+    <t>طريق العروبة ا...</t>
+  </si>
+  <si>
+    <t>2633 طريق العر...</t>
+  </si>
+  <si>
+    <t>8387 المدرسة، ...</t>
+  </si>
+  <si>
+    <t>8109 شارع الري...</t>
   </si>
   <si>
     <t>+966508554064</t>
@@ -1361,334 +1070,37 @@
     <t>+966509125400</t>
   </si>
   <si>
-    <t>https://saloon30.com/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ashjan_makeup_artist/</t>
-  </si>
-  <si>
-    <t>http://nails.talk.sa/</t>
-  </si>
-  <si>
-    <t>https://hair-salon-78420.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://www.google.com/search?q=%D9%85%D8%B3%D8%A7%D8%AC+%D9%88%D8%AD%D9%85%D8%A7%D9%85+%D8%A7%D9%84%D8%AE%D8%A8%D8%B1&amp;stick=H4sIAAAAAAAA_-NgU1I1qDBONbFMNrIwMjYyN7YwNje3MqgwsUgyNTJLMk9JSzU0NzVOWsQqd7P1xuYby2-sUbjZcWMtkLP8ZqsCkGi5se7GihsbAX9MQkhKAAAA&amp;hl=ar&amp;mat=CblMk_XnuoA6ElIBNqvzOhC_CK1srTdN_miEUoNMw_VltdKiVeGsAwg7tLKPrQSTwF6NiwWiIM6A3Yir0iz-8QpIvSE-u-gbIkZW4iUiFwwA7_zbZxwSOMulorIr&amp;authuser=0#mpd=~4215574756639067321/editprofile/info</t>
-  </si>
-  <si>
-    <t>https://instagram.com/femail_art_?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://aime.toi.salonspa.business.site/?utm_source=gmb&amp;utm_medium=referral</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D8%AD%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15c17be017c2f685:0xf546908a9aecf02e!8m2!3d21.775469!4d39.2186229!16s%2Fg%2F11h_24181g!19sChIJhfbCF-B7wRURLvDsmoqQRvU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%A8%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15ef45799b6dad33:0xcda6c2d524c5dbed!8m2!3d20.0122665!4d41.462109!16s%2Fg%2F11vs5qbw63!19sChIJM61tm3lF7xUR7dvFJNXCps0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gracie+Jiu-Jitsu+AzZahra%27a/data=!4m7!3m6!1s0x15c3db86db5fa54b:0x4617131e3a3db0ae!8m2!3d21.5924322!4d39.1424581!16s%2Fg%2F11h7y_gyfs!19sChIJS6Vf24bbwxURrrA9Oh4TF0Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Mrsool+park+stadium/data=!4m7!3m6!1s0x3e49e7b27650fb09:0xfafc3b36daf51aa6!8m2!3d26.2904253!4d50.1782554!16s%2Fg%2F11h0gzlyff!19sChIJCftQdrLnST4Rphr12jY7_Po?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B7%D8%B1%D9%82%D9%87+%D8%A7%D9%84%D8%B9%D8%A7%D8%A8+%D8%A7%D9%84%D9%82%D9%88%D9%89+%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%B5%D9%81%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x3e35f7f9b098ddcd:0x8f89dffdb8f757a3!8m2!3d26.6619187!4d49.9476349!16s%2Fg%2F11vjc6tl2_!19sChIJzd2YsPn3NT4Ro1f3uP3fiY8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D8%A8%D8%B7+%D8%A7%D8%A8%D9%88%D8%B3%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e35fd0054e837f1:0x8fb4e22e0aba7e38!8m2!3d26.5438518!4d49.8961597!16s%2Fg%2F11vq2w4fc_!19sChIJ8TfoVAD9NT4ROH66Ci7itI8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B3%D8%A8%D8%AD+%D8%AA%D9%87%D8%A7%D9%85%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e501bcb2ba5ec1:0x2d0052fa5663e4ae!8m2!3d19.0897872!4d41.9606924!16s%2Fg%2F11h07ptyfm!19sChIJwV66srwB5RURruRjVvpSAC0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1581ec4397b3da59:0x43d950d9238bb68d!8m2!3d26.0636626!4d43.9967131!16s%2Fg%2F11gzt40mw!19sChIJWdqzl0PsgRURjbaLI9lQ2UM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f00734cac87:0x93774b64514039e8!8m2!3d24.557592!4d46.725086!16s%2Fg%2F11y2nwprk9!19sChIJh6xMcwAPLz4R6DlAUWRLd5M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%AF%D9%84+%D8%AC%D8%AF%D8%AF+%D9%84%D9%8A%D8%A7%D9%82%D8%AA%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15c0973e800fbab7:0x92c05e2be64b95d0!8m2!3d22.8228317!4d39.0299623!16s%2Fg%2F11v5v8j8_3!19sChIJt7oPgD6XwBUR0JVL5itewJI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/N2+fitness/data=!4m7!3m6!1s0x15c3d10030a5274d:0x8d77d6d4762009ff!8m2!3d21.5608611!4d39.1590278!16s%2Fg%2F11y51f2_2v!19sChIJTSelMADRwxUR_wkgdtTWd40?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D8%A7%D9%87%D8%A8+%D9%88%D8%A3%D9%81%D9%83%D8%A7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x3e2fa9cdb7cffffd:0x6f9e82c7374dc2c2!8m2!3d24.6912395!4d46.8367642!16s%2Fg%2F11c37ysxh5!19sChIJ_f_Pt82pLz4RwsJNN8eCnm8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D8%B9%D8%A8+%D8%A8%D8%A7%D8%AF%D9%84+%D8%A7%D9%84%D9%83%D9%84%D9%8A%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x1581e91624fa9a99:0x4ab28d1e94b90fd9!8m2!3d26.1273312!4d44.0647349!16s%2Fg%2F11vf0vh_h2!19sChIJmZr6JBbpgRUR2Q-5lB6Nsko?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D9%84%D9%85+%D8%A8%D8%A7%D8%AF%D9%84+%D8%A7%D9%84%D8%A7%D8%AD%D8%B3%D8%A7%D8%A1+Palm+Padel+Alhasa%E2%80%AD/data=!4m7!3m6!1s0x3e3795fb4315cf05:0xfc3f3f708f014f17!8m2!3d25.3867778!4d49.6309248!16s%2Fg%2F11kc2p1n8h!19sChIJBc8VQ_uVNz4RF08Bj3A_P_w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%A7%D8%B1%D8%A7+%F0%9F%91%85%E2%80%AD/data=!4m7!3m6!1s0x15c21d0077b5948d:0x4d023185d762ff0e!8m2!3d21.510484!4d39.8042892!16s%2Fg%2F11w9xdl8tl!19sChIJjZS1dwAdwhURDv9i14UxAk0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%AC%D8%A7%D9%85%D8%B9%D8%A9+%D8%A7%D9%84%D8%A5%D9%85%D8%A7%D9%85+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86+%D8%A8%D9%86+%D9%81%D9%8A%D8%B5%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e49ef911d22889d:0x9d19df7b13d6e63e!8m2!3d26.3998319!4d50.1967575!16s%2Fg%2F11bzy6wc18!19sChIJnYgiHZHvST4RPubWE3vfGZ0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Khobar+Pavoorians/data=!4m7!3m6!1s0x3e49e9b77d0e0eff:0xe666cf6453a521e0!8m2!3d26.2901327!4d50.2161299!16s%2Fg%2F11fm08gtc1!19sChIJ_w4OfbfpST4R4CGlU2TPZuY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B4%D9%84%D8%A7%D9%84+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A+%D9%84%D9%84%D8%B3%D9%8A%D8%AF%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15fb5bd6aefa201f:0xbdbf2930fe053cab!8m2!3d18.2992268!4d42.7522475!16s%2Fg%2F11clt011jt!19sChIJHyD6rtZb-xURqzwF_jApv70?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D8%A7%D8%AF%D9%84+14%E2%80%AD/data=!4m7!3m6!1s0x15e4859400f89a25:0x37f2ec851ebf38fb!8m2!3d18.4932079!4d42.0541927!16s%2Fg%2F11l1ykw5v8!19sChIJJZr4AJSF5BUR-zi_HoXs8jc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D9%82%D8%B1%D8%B4+%D8%A7%D9%84%D8%A7%D8%B2%D8%B1%D9%82.%E2%80%AD/data=!4m7!3m6!1s0x3e3603e5c6b26bf5:0xec9960866c45c4e7!8m2!3d26.3666845!4d49.965418!16s%2Fg%2F11l5hd_hbk!19sChIJ9WuyxuUDNj4R58RFbIZgmew?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9+-+Fitness+Time%E2%80%AD/data=!4m7!3m6!1s0x15c3cfc6044c9009:0x87d307c52e9eb053!8m2!3d21.5112387!4d39.2270668!16s%2Fg%2F11l30q58yr!19sChIJCZBMBMbPwxURU7CeLsUH04c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A9+%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9+%D9%85%D8%AA%D8%B9%D8%AF%D8%AF%D8%A9+%D8%A7%D9%84%D9%86%D8%B4%D8%A7%D8%B7%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15a9afde6fc0b83d:0xe889037752607f56!8m2!3d28.4120882!4d36.5173378!16s%2Fg%2F11v0kslkj_!19sChIJPbjAb96vqRURVn9gUncDieg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Padel+pin/data=!4m7!3m6!1s0x15c3d9627fe66925:0xdc13b037b64871bf!8m2!3d21.649754!4d39.1312476!16s%2Fg%2F11sb07yk53!19sChIJJWnmf2LZwxURv3FItjewE9w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D8%A7%D8%AA+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%A8%D8%A7%D9%84%D8%AF%D9%85%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e49ef5f75963b97:0x1ccd568f1475e78f!8m2!3d26.3613003!4d50.1844231!16s%2Fg%2F11gcc6mkkt!19sChIJlzuWdV_vST4Rj-d1FI9WzRw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D9%82%D8%B1%D9%8A%D9%86%D9%8A%D8%A9+%D8%A7%D9%84%D8%B5%D8%BA%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3b5006353d297:0xb81f327c00edab3e!8m2!3d21.3190333!4d39.2599603!16s%2Fg%2F11ldg3gcr_!19sChIJl9JTYwC1wxURPqvtAHwyH7g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B5%D8%AD%D8%AA%D9%8A+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2f0fa030b9a44d:0x56b324f6399b6c70!8m2!3d24.5382697!4d46.7002659!16s%2Fg%2F11k4nypnk5!19sChIJTaS5MKAPLz4RcGybOfYks1Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D8%AC+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A+MOOG%E2%80%AD/data=!4m7!3m6!1s0x15e3557fd1d1303d:0x8c9c70d28fd7d3da!8m2!3d18.2666333!4d42.4982948!16s%2Fg%2F11rjqbjpt6!19sChIJPTDR0X9V4xUR2tPXj9JwnIw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db3e99934271:0x535f5771e408367b!8m2!3d21.442423!4d39.272837!16s%2Fg%2F11h3mth8v9!19sChIJcUKTmT7bwxURezYI5HFXX1M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D8%B3%D9%81%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15fd5f5b3d7627c5:0x1db50d6b9f686ebc!8m2!3d17.0002418!4d42.8117496!16s%2Fg%2F11f7yw4yc8!19sChIJxSd2PVtf_RURvG5on2sNtR0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+T.STAR+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5fc8dbb04bbd:0xbbb5da5bc30a99d!8m2!3d26.3595501!4d44.0314672!16s%2Fg%2F11snzq2hxn!19sChIJvUuw28hffxURnakwvKVduws?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Activ+Gym-Ladies+%7C+%D8%A3%D9%83%D8%AA%D9%8A%D9%81+%D8%AC%D9%8A%D9%85-%D9%86%D8%B3%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2efdaa9b074fc9:0x321d07da6cdd169b!8m2!3d24.767687!4d46.7141228!16s%2Fg%2F11khbstknk!19sChIJyU8Hm6r9Lj4RmxbdbNoHHTI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D9%87+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D9%87+%D8%A7%D9%84%D8%AF%D8%A7%D8%AE%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e2551dbc5e02099:0xe326e371e8daef5b!8m2!3d24.2471996!4d47.3548722!16s%2Fg%2F11kpdfzzbr!19sChIJmSDgxdtRJT4RW-_a6HHjJuM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A.%E2%80%AD/data=!4m7!3m6!1s0x3e2fabd212758cab:0x8b67de8ca0e3009f!8m2!3d24.761577!4d46.8615308!16s%2Fg%2F11f6xyb771!19sChIJq4x1EtKrLz4RnwDjoIzeZ4s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D9%82%D8%AA+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9+%D8%A8%D8%B1%D9%88%E2%80%AD/data=!4m7!3m6!1s0x3e2f0041d50eb9ab:0x6bbd738b7358c7b3!8m2!3d24.769956!4d46.806213!16s%2Fg%2F11f5dqj5qv!19sChIJq7kO1UEALz4Rs8dYc4tzvWs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A8%D8%A7%D9%86%D9%8A+%D8%A7%D9%84%D8%AC%D8%B3%D9%85+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x1572bbac193ed7ad:0xe8ae0b9178984b26!8m2!3d29.9780734!4d40.1873244!16s%2Fg%2F11v3hts089!19sChIJrdc-Gay7chURJkuYeJELrug?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AC%D8%B1%D9%91%D8%A9+%D8%B9%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c0f1fc188406f1:0xc491daa5888c6e35!8m2!3d22.4951678!4d39.232629!16s%2Fg%2F11vlcvbjzq!19sChIJ8QaEGPzxwBURNW6MiKXakcQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D9%83%D8%B1%D8%A9+%D9%82%D8%AF%D9%85%E2%80%AD/data=!4m7!3m6!1s0x157f57003ad3b699:0x483333b452036ba8!8m2!3d26.3645044!4d43.9305479!16s%2Fg%2F11w1nc_l9n!19sChIJmbbTOgBXfxURqGsDUrQzM0g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A9+%D8%A7%D8%A8%D8%B7%D8%A7%D9%84+%D8%A7%D9%84%D9%88%D8%AC%D9%87+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b1d15e5615a4b1:0x5263aa285cc13ef4!8m2!3d26.2626906!4d36.4585094!16s%2Fg%2F11rxsp1n3g!19sChIJsaQVVl7RsRUR9D7BXCiqY1I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D9%82%D8%B5%D8%B1+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x151007b1ad996b51:0xd50eb5519814e277!8m2!3d31.3444883!4d37.3253965!16s%2Fg%2F11hz0qz_yf!19sChIJUWuZrbEHEBURd-IUmFG1DtU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x3e49fe3c0b63033d:0xfdc94728813f4732!8m2!3d26.4736144!4d50.0319967!16s%2Fg%2F1tgf67y0!19sChIJPQNjCzz-ST4RMkc_gShHyf0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D8%B9%D8%A8+%D8%A3%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%B1%D8%AC+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e254fbb14bc855f:0xea9b0da463a1306b!8m2!3d24.1779224!4d47.318117!16s%2Fg%2F11g03lpclt!19sChIJX4W8FLtPJT4RazChY6QNm-o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%AE%D8%B7%D9%88%D8%A9+%D8%B1%D8%B4%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c201ed4b30d541:0x5d4d8fbc22c5282c!8m2!3d21.4533739!4d39.9382692!16s%2Fg%2F11g4hkyf1q!19sChIJQdUwS-0BwhURLCjFIryPTV0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D9%82%D9%88%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9+power+gym%E2%80%AD/data=!4m7!3m6!1s0x3e49e8ae55043427:0x60f8d0ce82aae928!8m2!3d26.338153!4d50.1908131!16s%2Fg%2F11csb1q0sx!19sChIJJzQEVa7oST4RKOmqgs7Q-GA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D9%8A%D8%A7%D9%82%D9%88%D8%AA+%D8%A7%D9%84%D8%A3%D8%AE%D8%B6%D8%B1+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A+%D8%A7%D9%84%D9%86%D8%B3%D8%A7%D8%A6%D9%8A+Green+Sapphire+Centre%E2%80%AD/data=!4m7!3m6!1s0x3e49e526a211b295:0xaf402b6c0266a653!8m2!3d26.3780031!4d50.1479168!16s%2Fg%2F11t2sqgcb4!19sChIJlbIRoiblST4RU6ZmAmwrQK8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D9%85%D9%8A%D8%AF%D8%A7%D9%86+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c205a29bacf1cd:0x5490051cec6f05d3!8m2!3d24.222142!4d45.0740834!16s%2Fg%2F11rjj386z1!19sChIJzfGsm6IFwhUR0wVv7BwFkFQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D8%B3%D8%A7%D8%AD%D8%A9+%D8%A7%D9%84%D8%AE%D8%B6%D8%B1%D8%A7%D8%A1+%D8%AD%D9%8A+%D8%A7%D9%84%D9%85%D8%B5%D8%A7%D9%86%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f61751b8141:0xe4ce815350a31bbe!8m2!3d24.567007!4d46.729918!16s%2Fg%2F11fd15cmpv!19sChIJQYEbdWEPLz4RvhujUFOBzuQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D8%B9%D8%A8+%D9%81%D8%B1%D9%8A%D9%82+%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A+%D8%A8%D8%A7%D9%84%D8%B7%D8%B1%D9%81%E2%80%AD/data=!4m7!3m6!1s0x3e37ed0912d857b1:0xd067d6560587cf3!8m2!3d25.3527538!4d49.728648!16s%2Fg%2F11c1s7l7y7!19sChIJsVfYEgntNz4R83xYYGV9Bg0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/An+Nayfiayah,+Al+Hofuf/data=!4m7!3m6!1s0x3e37916019f332cd:0x9cb22e349da6fe34!8m2!3d25.3284666!4d49.5536068!16s%2Fg%2F11ffw0jngs!19sChIJzTLzGWCRNz4RNP6mnTQuspw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/KFUPM+Female+Students%E2%80%99+Gym/data=!4m7!3m6!1s0x3e49e7003d1ef09d:0x6231f8888066d9bb!8m2!3d26.3025473!4d50.1536027!16s%2Fg%2F11vx6pnnnd!19sChIJnfAePQDnST4Ru9lmgIj4MWI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D9%82%D9%88%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49fc849e4ffad7:0xc8079efa7f1461e6!8m2!3d26.4237143!4d50.0956151!16s%2Fg%2F11c2qk1wh1!19sChIJ1_pPnoT8ST4R5mEUf_qeB8g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D8%A8%D9%86%D9%89+%D8%A7%D9%84%D8%A5%D8%AF%D8%A7%D8%B1%D9%8A+%D9%84%D9%86%D8%A7%D8%AF%D9%8A+%D8%B6%D8%A8%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15ac30ff4feca685:0xe45c7be66291c3af!8m2!3d27.3534039!4d35.6962337!16s%2Fg%2F11f52162j5!19sChIJhabsT_8wrBURr8ORYuZ7XOQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Barracuda+Sport+Academy+%2F+%D8%A7%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D8%A8%D8%A7%D8%B1%D8%A7%D9%83%D9%88%D8%AF%D8%A7+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db71bf5d09f5:0x97969b37eebc4ce1!8m2!3d21.627813!4d39.141813!16s%2Fg%2F11pws928qs!19sChIJ9Qldv3HbwxUR4Uy87jeblpc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D8%A7%D9%84%D8%B7%D8%A7%D9%82%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c21b97760e06df:0xa34827c08be2a11a!8m2!3d21.3664036!4d39.7862872!16s%2Fg%2F11rdcxmlss!19sChIJ3wYOdpcbwhURGqHii8AnSKM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Playland/data=!4m7!3m6!1s0x15c11c4a0ea9d9dd:0xa7d1f6703f706deb!8m2!3d22.3169539!4d39.0921789!16s%2Fg%2F11g5__mf26!19sChIJ3dmpDkocwRUR621wP3D20ac?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%AF%D9%8A%D9%86%D9%8A+%D9%84%D8%A7%D9%84%D8%B9%D8%A7%D8%A8+%D8%A7%D9%84%D9%82%D9%88%D9%8A%D9%8B%E2%80%AD/data=!4m7!3m6!1s0x15c20174ec43db69:0x80be82db506b49e8!8m2!3d21.4545494!4d39.9715385!16s%2Fg%2F11rvft51kf!19sChIJadtD7HQBwhUR6ElrUNuCvoA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D8%B7%D8%A8%D9%84+%D9%86%D8%AC%D8%AF%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e255d002700934d:0xff3d5ede42794933!8m2!3d24.2318248!4d47.2039936!16s%2Fg%2F11lms76s1z!19sChIJTZMAJwBdJT4RM0l5Qt5ePf8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%86%D8%A7%D8%A1+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9+Rise+fitness%E2%80%AD/data=!4m7!3m6!1s0x3e4a099d4b3de809:0x7a70cb74018f07a9!8m2!3d26.7062943!4d50.0523089!16s%2Fg%2F11l16nyxcx!19sChIJCeg9S50JSj4RqQePAXTLcHo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%A7+%D8%A8%D8%A7%D8%B1%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e2ee3fc0e59ec55:0xbef0a304cd6eaae8!8m2!3d24.7502069!4d46.6231653!16s%2Fg%2F11fgjp48z3!19sChIJVexZDvzjLj4R6KpuzQSj8L4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%AD%D9%8A+%D8%A8%D9%85%D8%AC%D9%85%D8%B9+%D8%A7%D9%84%D8%A3%D9%85%D9%8A%D8%B1+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c3dbedcd293a53:0xb377ef495b1f110f!8m2!3d21.5885204!4d39.1463823!16s%2Fg%2F11v60383y0!19sChIJUzopze3bwxURDxEfW0nvd7M?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D9%86%D8%AE%D8%A8%D8%A9+%D8%A7%D9%84%D8%A7%D8%AC%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x157fe9e463e03fdb:0x114e752154197474!8m2!3d26.2901229!4d44.8068162!16s%2Fg%2F11h710zydt!19sChIJ2z_gY-TpfxURdHQZVCF1ThE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D8%A7%D9%84%D8%A7%D8%B3%D8%A8%D8%A7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3d13d89c06b37:0x2ff9977b480d788f!8m2!3d21.5749217!4d39.1724754!16s%2Fg%2F11hdvmh49p!19sChIJN2vAiT3RwxURj3gNSHuX-S8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Gyminine+%D8%AC%D9%8A%D9%85%D9%86%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2efdacbecf2f55:0xe25dfcf8fb6d99cb!8m2!3d24.762326!4d46.7229049!16s%2Fg%2F11fl79230q!19sChIJVS_Pvqz9Lj4Ry5lt-_j8XeI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%B4%D8%B1%D9%83%D8%A9+%D8%A7%D9%84%D9%85%D9%8A%D8%A7%D9%87+%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f0f9ba10eb153:0x23dc7a0c445797b2!8m2!3d24.5897372!4d46.7029657!16s%2Fg%2F11crzkvybd!19sChIJU7EOoZsPLz4RspdXRAx63CM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%84%D8%A7%D8%B9%D8%A8+%D8%A7%D9%84%D9%85%D9%85%D9%8A%D8%B2%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2e54b169fff921:0xc1d28dfc536160db!8m2!3d24.8267926!4d46.8894131!16s%2Fg%2F11c1rs_2y8!19sChIJIfn_abFULj4R22BhU_yN0sE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d63ea568ebe1:0xf8e0417092ae182f!8m2!3d21.6745212!4d39.2122644!16s%2Fg%2F11bzrpyh3p!19sChIJ4etopT7WwxURLxiuknBB4Pg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A7%D8%AA+%D9%86%D8%B4%D8%A7%D8%B7+%D8%AA%D8%B9%D9%84%D9%8A%D9%85+%D8%B5%D8%A8%D9%8A%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fd51a3eb10ead3:0x4db5088db9476253!8m2!3d17.1562653!4d42.6527947!16s%2Fg%2F11cn9z56_q!19sChIJ0-oQ66NR_RURU2JHuY0ItU0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B5%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D9%87%D9%8A%D8%A6%D8%A9+%D8%A7%D9%84%D9%85%D9%84%D9%83%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91b6268b6f3f9:0x31c93cc4c3d1f717!8m2!3d24.0007381!4d38.2198333!16s%2Fg%2F11h0byn4lm!19sChIJ-fO2aGIbuRURF_fRw8Q8yTE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A8%D8%B7%D9%84+%D8%A3%D8%B3%D9%8A%D8%A7+-+%D8%B3%D9%8A%D8%AF%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e80bd53c0ae157:0x4e6424556013183f!8m2!3d20.1491392!4d40.2795897!16s%2Fg%2F11kt5k7rdg!19sChIJV-EKPNUL6BURPxgTYFUkZE4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D8%B3%D9%85%D8%A7%D8%B1%D8%AA+%D9%81%D9%86%D8%AF%D9%82+%D8%A8%D8%B1%D9%8A%D8%B1%D8%A7+VIP%E2%80%AD/data=!4m7!3m6!1s0x3e2efdb6c1e86cf5:0xc4a6f3de2b48d4d6!8m2!3d24.7700541!4d46.7148706!16s%2Fg%2F11l1hv86py!19sChIJ9Wzowbb9Lj4R1tRIK97zpsQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A8%D9%86%D9%89+36+-+%D8%A7%D8%B3%D8%AA%D8%A7%D8%AF+%D8%A7%D9%84%D8%AC%D8%A7%D9%85%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e49e65b59dfbe83:0x5207ba04ef3d04c6!8m2!3d26.3076803!4d50.1517276!16s%2Fg%2F11cmpz2tt4!19sChIJg77fWVvmST4RxgQ97wS6B1I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%AC%D8%AF%D8%A9+%D9%84%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%AA%D9%88%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c3db5b4b933fe5:0xcb44fb83748732a8!8m2!3d21.5682421!4d39.1113899!16s%2Fg%2F11r_pk3t7b!19sChIJ5T-TS1vbwxURqDKHdIP7RMs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/IRON+BOX+GYM/data=!4m7!3m6!1s0x3fcc1df9063faa67:0x7d5d2a49cc01323b!8m2!3d28.4516319!4d48.4898164!16s%2Fg%2F11sym15lyf!19sChIJZ6o_BvkdzD8ROzIBzEkqXX0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D9%82%D8%A7%D8%AF%D8%B3%D9%8A%D9%87+%D8%AD%D9%8A+%D8%A7%D9%84%D8%B1%D9%82%D9%8A%D9%82%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e37973149cec18b:0x9228d9d4017197c4!8m2!3d25.3780224!4d49.5777155!16s%2Fg%2F11fn7_1v39!19sChIJi8HOSTGXNz4RxJdxAdTZKJI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B5%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e4a01005bea6fc1:0x58d0ebc2b711bab9!8m2!3d26.5742825!4d50.0510509!16s%2Fg%2F11ldrcl_0v!19sChIJwW_qWwABSj4RuboRt8Lr0Fg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/NB+fitness+center+%D9%86%D8%A7%D8%AF%D9%8A+%D9%86%D8%B3%D8%A7%D8%A6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15c3d95b41cbd303:0x64f8bc8be3d59d65!8m2!3d21.6611979!4d39.1210247!16s%2Fg%2F11p08ctsr8!19sChIJA9PLQVvZwxURZZ3V44u8-GQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%88%D9%82%D8%A7%D8%AA+%D8%A7%D9%84%D8%AA%D8%AD%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15fb59ccb84df7bb:0xf09c3d85d6ad4536!8m2!3d18.2426687!4d42.7831917!16s%2Fg%2F11v5f0ym06!19sChIJu_dNuMxZ-xURNkWt1oU9nPA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+A10+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c163dd5ea47f6d:0x1861ddc09d9d3a74!8m2!3d21.7496567!4d39.1375808!16s%2Fg%2F11kk6zs4kf!19sChIJbX-kXt1jwRURdDqdncDdYRg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%AD%D9%8A+%D8%A8%D8%A7%D9%84%D9%85%D8%AA%D9%88%D8%B3%D8%B7%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D8%A8%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fb5b86a239f393:0x37ecf9f1552657ad!8m2!3d18.3323709!4d42.776469!16s%2Fg%2F11l2xywzld!19sChIJk_M5ooZb-xURrVcmVfH57Dc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%87%D9%84%D8%A7+%D8%A8%D8%A7%D8%AF%D9%84+%7C+Hala+Padel%E2%80%AD/data=!4m7!3m6!1s0x15763f123a7cc76d:0x782673f32a713f48!8m2!3d27.4678575!4d41.6418939!16s%2Fg%2F11l5dkvgbb!19sChIJbcd8OhI_dhURSD9xKvNzJng?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/9ROUND+Gents/data=!4m7!3m6!1s0x3e2ee321c730e895:0x50d9b388ba1e01b!8m2!3d24.7413493!4d46.6192666!16s%2Fg%2F11y78nqbgs!19sChIJlegwxyHjLj4RG-ChizibDQU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D9%8A+%D8%A7%D9%84%D8%AA%D9%8A%D8%B3%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15c3d30013a3433f:0xbb69543250f3a23!8m2!3d21.544631!4d39.2934129!16s%2Fg%2F11vwq7cnrj!19sChIJP0OjEwDTwxURIzoPJUOVtgs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D9%87%D9%8F%D9%86%D8%A7+%D8%A7%D9%84%D9%84%D9%8A%D8%A7%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f5858c419f3c9:0x770c80f24c27ce16!8m2!3d26.346458!4d43.9803645!16s%2Fg%2F11cn5nvpxr!19sChIJyfMZxFhYfxURFs4nTPKADHc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%86%D8%A7%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e98993c54c42f7:0xe77a2445af4dfa99!8m2!3d21.2960915!4d40.4020656!16s%2Fg%2F11fmmnnr37!19sChIJ90JMxZOJ6RURmfpNr0Ukeuc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%88%D8%AF%D9%8A+%D9%85%D9%88%D8%B4%D9%86%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15c3d9c6e1c9626f:0x3f4a0424afe0f71d!8m2!3d21.643183!4d39.140183!16s%2Fg%2F11nmmkmw6j!19sChIJb2LJ4cbZwxURHffgryQESj8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A5%D8%B3%D8%B7%D8%A8%D9%84+%D9%85%D8%B4%D8%B9%D9%84+%D8%B7%D9%8A%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15bdbdafaea189a3:0xb5c09066486a0bd2!8m2!3d24.548355!4d39.586246!16s%2Fg%2F11h27yw_4f!19sChIJo4mhrq-9vRUR0gtqSGaQwLU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%AA%D8%B1%D8%AC%D9%8A+%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e360110d7f6dc03:0x1ca7570b5831d55f!8m2!3d26.5047368!4d49.9796981!16s%2Fg%2F11pw17lb60!19sChIJA9z21xABNj4RX9UxWAtXpxw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/NEXT+WELLNESS+CLUB/data=!4m7!3m6!1s0x3e49e9928221a4a7:0xcdce92db354ee740!8m2!3d26.3003806!4d50.2209889!16s%2Fg%2F11kpl1843r!19sChIJp6QhgpLpST4RQOdONduSzs0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Alwakeel/data=!4m7!3m6!1s0x3e49ffb4e2a8184f:0x975d1abe2b1149d7!8m2!3d26.4769921!4d50.0560375!16s%2Fg%2F11sj94_ydn!19sChIJTxio4rT_ST4R10kRK74aXZc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%A3%D8%BA%D8%B1+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15f28abfd650ec41:0x28c40bf9cbcdecff!8m2!3d21.2540406!4d42.844667!16s%2Fg%2F1hdz978k0!19sChIJQexQ1r-K8hUR_-zNy_kLxCg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A7%D9%83%D8%B3+%D8%A8%D8%A7%D8%AF%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bd9595b1d52925:0x193f66391312cf91!8m2!3d24.4220625!4d39.6581875!16s%2Fg%2F11jznvpwxy!19sChIJJSnVsZWVvRURkc8SEzlmPxk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Free+Throw+Bowling/data=!4m7!3m6!1s0x1607f5f230de2bbf:0x32b044aefecaa773!8m2!3d16.9522307!4d42.8579782!16s%2Fg%2F11l2wbpxly!19sChIJvyveMPL1BxYRc6fK_q5EsDI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%85%D9%85%D8%B4%D9%89+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D8%B6%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e37974865ea533b:0x9b7643d0290fcc30!8m2!3d25.408052!4d49.6012374!16s%2Fg%2F11h22hw51_!19sChIJO1PqZUiXNz4RMMwPKdBDdps?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/TAG+POD/data=!4m7!3m6!1s0x3e2f1dd42dfc16bf:0x56e874e558e71ca7!8m2!3d24.6756065!4d46.6294526!16s%2Fg%2F11pklkqpg0!19sChIJvxb8LdQdLz4RpxznWOV06FY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AC%D9%87%D8%AF+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e989c335117eab:0xa3d2a9b0503da5a7!8m2!3d21.2881931!4d40.4034436!16s%2Fg%2F11vy8917v8!19sChIJq34RNcOJ6RURp6U9ULCp0qM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%84%D8%B9%D8%A8+%D8%A7%D9%84%D8%B1%D9%88%D8%A7%D8%A8%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15bd95515fdea683:0x71387057cf64379e!8m2!3d24.4220314!4d39.6581933!16s%2Fg%2F11dyq_6ggb!19sChIJg6beX1GVvRURnjdkz1dwOHE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%83%D8%A7%D8%AF%D9%8A%D9%85%D9%8A%D8%A9+%D9%86%D8%AC%D9%88%D9%85+%D8%A7%D9%84%D8%B4%D8%B9%D9%84%D8%A9+%D9%84%D9%83%D8%B1%D8%A9+%D8%A7%D9%84%D9%82%D8%AF%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15c205d983045933:0x71132202e95b40b2!8m2!3d21.4179166!4d39.8627909!16s%2Fg%2F11fj489wp1!19sChIJM1kEg9kFwhURskBb6QIiE3E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Towaiq+F+stud/data=!4m7!3m6!1s0x3e35fd8fd703c743:0x1bb4a8252b972b83!8m2!3d26.5408751!4d49.9007972!16s%2Fg%2F11kk5bv_sw!19sChIJQ8cD14_9NT4RgyuXKyWotBs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%A7%D8%AF%D9%8A+%D8%A7%D9%84%D8%A5%D8%A8%D8%AA%D8%B3%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e36000aed37c351:0xcfc026fee6d3dc68!8m2!3d26.5165271!4d49.9997928!16s%2Fg%2F1hc0slzb1!19sChIJUcM37QoANj4RaNzT5v4mwM8?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://saloon...</t>
+  </si>
+  <si>
+    <t>https://www.in...</t>
+  </si>
+  <si>
+    <t>http://nails.t...</t>
+  </si>
+  <si>
+    <t>https://hair-s...</t>
+  </si>
+  <si>
+    <t>https://instag...</t>
+  </si>
+  <si>
+    <t>https://aime.t...</t>
   </si>
   <si>
     <t>ملعب الصالحيه</t>
   </si>
   <si>
-    <t>مركز الباحة الرياضي</t>
-  </si>
-  <si>
-    <t>Gracie Jiu-Jitsu AzZahra'a</t>
-  </si>
-  <si>
-    <t>Mrsool park stadium</t>
-  </si>
-  <si>
-    <t>مطرقه العاب القوى نادي الصفا</t>
+    <t>مركز الباحة ال...</t>
+  </si>
+  <si>
+    <t>Gracie Jiu-Jit...</t>
+  </si>
+  <si>
+    <t>Mrsool park st...</t>
+  </si>
+  <si>
+    <t>مطرقه العاب ال...</t>
   </si>
   <si>
     <t>مربط ابوسيف</t>
@@ -1700,10 +1112,10 @@
     <t>النادي العربي</t>
   </si>
   <si>
-    <t>اكاديمية العالمية</t>
-  </si>
-  <si>
-    <t>بادل جدد لياقتك</t>
+    <t>اكاديمية العال...</t>
+  </si>
+  <si>
+    <t>بادل جدد لياقت...</t>
   </si>
   <si>
     <t>N2 fitness</t>
@@ -1712,49 +1124,49 @@
     <t>مواهب وأفكار</t>
   </si>
   <si>
-    <t>ملاعب بادل الكليات</t>
-  </si>
-  <si>
-    <t>بالم بادل الاحساء Palm Padel Alhasa</t>
+    <t>ملاعب بادل الك...</t>
+  </si>
+  <si>
+    <t>بالم بادل الاح...</t>
   </si>
   <si>
     <t>لارا</t>
   </si>
   <si>
-    <t>ملعب جامعة الإمام عبدالرحمن بن فيصل</t>
-  </si>
-  <si>
-    <t>Khobar Pavoorians</t>
-  </si>
-  <si>
-    <t>الشلال الرياضي للسيدات</t>
+    <t>ملعب جامعة الإ...</t>
+  </si>
+  <si>
+    <t>Khobar Pavoori...</t>
+  </si>
+  <si>
+    <t>الشلال الرياضي...</t>
   </si>
   <si>
     <t>بادل 14</t>
   </si>
   <si>
-    <t>نادي القرش الازرق.</t>
-  </si>
-  <si>
-    <t>وقت اللياقة - Fitness Time</t>
-  </si>
-  <si>
-    <t>صالة رياضية متعددة النشاطات</t>
+    <t>نادي القرش الا...</t>
+  </si>
+  <si>
+    <t>وقت اللياقة - ...</t>
+  </si>
+  <si>
+    <t>صالة رياضية مت...</t>
   </si>
   <si>
     <t>Padel pin</t>
   </si>
   <si>
-    <t>الصالات الرياضية الخضراء بالدمام</t>
-  </si>
-  <si>
-    <t>ملعب القرينية الصغير</t>
-  </si>
-  <si>
-    <t>مركز صحتي الرياضي</t>
-  </si>
-  <si>
-    <t>موج الرياضي MOOG</t>
+    <t>الصالات الرياض...</t>
+  </si>
+  <si>
+    <t>ملعب القرينية ...</t>
+  </si>
+  <si>
+    <t>مركز صحتي الري...</t>
+  </si>
+  <si>
+    <t>موج الرياضي MO...</t>
   </si>
   <si>
     <t>وقت اللياقة</t>
@@ -1763,22 +1175,22 @@
     <t>ملعب السفير</t>
   </si>
   <si>
-    <t>أكاديمية T.STAR الرياضية</t>
-  </si>
-  <si>
-    <t>Activ Gym-Ladies | أكتيف جيم-نساء</t>
-  </si>
-  <si>
-    <t>الصاله الرياضيه الداخليه</t>
-  </si>
-  <si>
-    <t>المجمع الرياضي.</t>
-  </si>
-  <si>
-    <t>وقت اللياقة برو</t>
-  </si>
-  <si>
-    <t>نادي باني الجسم الرياضي</t>
+    <t>أكاديمية T.STA...</t>
+  </si>
+  <si>
+    <t>Activ Gym-Ladi...</t>
+  </si>
+  <si>
+    <t>الصاله الرياضي...</t>
+  </si>
+  <si>
+    <t>المجمع الرياضي...</t>
+  </si>
+  <si>
+    <t>وقت اللياقة بر...</t>
+  </si>
+  <si>
+    <t>نادي باني الجس...</t>
   </si>
   <si>
     <t>جرّة عمر</t>
@@ -1787,130 +1199,127 @@
     <t>ملعب كرة قدم</t>
   </si>
   <si>
-    <t>صالة ابطال الوجه الرياضية</t>
-  </si>
-  <si>
-    <t>نادي قصر اللياقة النسائي</t>
+    <t>صالة ابطال الو...</t>
+  </si>
+  <si>
+    <t>نادي قصر الليا...</t>
   </si>
   <si>
     <t>نادي الخليج</t>
   </si>
   <si>
-    <t>ملاعب أكاديمية الخرج الرياضية</t>
-  </si>
-  <si>
-    <t>نادي خطوة رشاقة النسائي</t>
-  </si>
-  <si>
-    <t>صالة القوة الرياضية power gym</t>
-  </si>
-  <si>
-    <t>مركز الياقوت الأخضر الرياضي النسائي Green Sapphire Centre</t>
-  </si>
-  <si>
-    <t>نادي ميدان الرياضي</t>
-  </si>
-  <si>
-    <t>ملعب الساحة الخضراء حي المصانع</t>
-  </si>
-  <si>
-    <t>ملاعب فريق الشباب الرياضي بالطرف</t>
-  </si>
-  <si>
-    <t>An Nayfiayah, Al Hofuf</t>
-  </si>
-  <si>
-    <t>KFUPM Female Students’ Gym</t>
-  </si>
-  <si>
-    <t>صالة القوة الرياضية</t>
-  </si>
-  <si>
-    <t>المبنى الإداري لنادي ضباء</t>
-  </si>
-  <si>
-    <t>Barracuda Sport Academy / اكاديمية باراكودا الرياضية</t>
-  </si>
-  <si>
-    <t>أكاديمية الطاقة الرياضية</t>
+    <t>ملاعب أكاديمية...</t>
+  </si>
+  <si>
+    <t>نادي خطوة رشاق...</t>
+  </si>
+  <si>
+    <t>صالة القوة الر...</t>
+  </si>
+  <si>
+    <t>مركز الياقوت ا...</t>
+  </si>
+  <si>
+    <t>نادي ميدان الر...</t>
+  </si>
+  <si>
+    <t>ملعب الساحة ال...</t>
+  </si>
+  <si>
+    <t>ملاعب فريق الش...</t>
+  </si>
+  <si>
+    <t>An Nayfiayah, ...</t>
+  </si>
+  <si>
+    <t>KFUPM Female S...</t>
+  </si>
+  <si>
+    <t>المبنى الإداري...</t>
+  </si>
+  <si>
+    <t>Barracuda Spor...</t>
+  </si>
+  <si>
+    <t>أكاديمية الطاق...</t>
   </si>
   <si>
     <t>Playland</t>
   </si>
   <si>
-    <t>الرديني لالعاب القويً</t>
+    <t>الرديني لالعاب...</t>
   </si>
   <si>
     <t>اسطبل نجدية</t>
   </si>
   <si>
-    <t>بناء اللياقة Rise fitness</t>
+    <t>بناء اللياقة R...</t>
   </si>
   <si>
     <t>لا بارري</t>
   </si>
   <si>
-    <t>نادي الحي بمجمع الأمير سلطان</t>
-  </si>
-  <si>
-    <t>مركز نخبة الاجيال الرياضي</t>
-  </si>
-  <si>
-    <t>نادي المدرسة الاسبانية</t>
-  </si>
-  <si>
-    <t>Gyminine جيمنن</t>
-  </si>
-  <si>
-    <t>نادي شركة المياه الوطنية</t>
-  </si>
-  <si>
-    <t>الملاعب المميزة</t>
+    <t>نادي الحي بمجم...</t>
+  </si>
+  <si>
+    <t>مركز نخبة الاج...</t>
+  </si>
+  <si>
+    <t>نادي المدرسة ا...</t>
+  </si>
+  <si>
+    <t>Gyminine جيمنن...</t>
+  </si>
+  <si>
+    <t>نادي شركة المي...</t>
+  </si>
+  <si>
+    <t>الملاعب المميز...</t>
   </si>
   <si>
     <t>ملعب رياضي</t>
   </si>
   <si>
-    <t>صالات نشاط تعليم صبيا</t>
-  </si>
-  <si>
-    <t>صالة الهيئة الملكية</t>
-  </si>
-  <si>
-    <t>مركز بطل أسيا - سيدات</t>
-  </si>
-  <si>
-    <t>اكاديمية سمارت فندق بريرا VIP</t>
-  </si>
-  <si>
-    <t>مبنى 36 - استاد الجامعة</t>
-  </si>
-  <si>
-    <t>نادي جدة للرياضات الشتوية</t>
+    <t>صالات نشاط تعل...</t>
+  </si>
+  <si>
+    <t>صالة الهيئة ال...</t>
+  </si>
+  <si>
+    <t>مركز بطل أسيا ...</t>
+  </si>
+  <si>
+    <t>اكاديمية سمارت...</t>
+  </si>
+  <si>
+    <t>مبنى 36 - استا...</t>
+  </si>
+  <si>
+    <t>نادي جدة للريا...</t>
   </si>
   <si>
     <t>IRON BOX GYM</t>
   </si>
   <si>
-    <t>ملعب القادسيه حي الرقيقه</t>
-  </si>
-  <si>
-    <t>الصالة الرياضية</t>
-  </si>
-  <si>
-    <t>NB fitness center نادي نسائي</t>
-  </si>
-  <si>
-    <t>مقهى اوقات التحدي</t>
-  </si>
-  <si>
-    <t>اكاديمية A10 الرياضية</t>
-  </si>
-  <si>
-    <t>نادي الحي بالمتوسطة الرابعة</t>
-  </si>
-  <si>
-    <t>هلا بادل | Hala Padel</t>
+    <t>ملعب القادسيه ...</t>
+  </si>
+  <si>
+    <t>الصالة الرياضي...</t>
+  </si>
+  <si>
+    <t>NB fitness cen...</t>
+  </si>
+  <si>
+    <t>مقهى اوقات الت...</t>
+  </si>
+  <si>
+    <t>اكاديمية A10 ا...</t>
+  </si>
+  <si>
+    <t>نادي الحي بالم...</t>
+  </si>
+  <si>
+    <t>هلا بادل | Hal...</t>
   </si>
   <si>
     <t>9ROUND Gents</t>
@@ -1919,7 +1328,7 @@
     <t>حي التيسير</t>
   </si>
   <si>
-    <t>نادي هُنا اللياقة</t>
+    <t>نادي هُنا اللي...</t>
   </si>
   <si>
     <t>النادي</t>
@@ -1928,28 +1337,28 @@
     <t>بودي موشنز</t>
   </si>
   <si>
-    <t>إسطبل مشعل طيبة</t>
-  </si>
-  <si>
-    <t>نادي الترجي السعودي</t>
-  </si>
-  <si>
-    <t>NEXT WELLNESS CLUB</t>
+    <t>إسطبل مشعل طيب...</t>
+  </si>
+  <si>
+    <t>نادي الترجي ال...</t>
+  </si>
+  <si>
+    <t>NEXT WELLNESS ...</t>
   </si>
   <si>
     <t>Alwakeel</t>
   </si>
   <si>
-    <t>نادي الأغر الرياضي</t>
+    <t>نادي الأغر الر...</t>
   </si>
   <si>
     <t>ماكس بادل</t>
   </si>
   <si>
-    <t>Free Throw Bowling</t>
-  </si>
-  <si>
-    <t>الممشى الرياضي</t>
+    <t>Free Throw Bow...</t>
+  </si>
+  <si>
+    <t>الممشى الرياضي...</t>
   </si>
   <si>
     <t>TAG POD</t>
@@ -1961,7 +1370,7 @@
     <t>ملعب الروابي</t>
   </si>
   <si>
-    <t>اكاديمية نجوم الشعلة لكرة القدم</t>
+    <t>اكاديمية نجوم ...</t>
   </si>
   <si>
     <t>Towaiq F stud</t>
@@ -1976,19 +1385,19 @@
     <t>نادي رياضي</t>
   </si>
   <si>
-    <t>مدرسة فنون قتالية</t>
+    <t>مدرسة فنون قتا...</t>
   </si>
   <si>
     <t>مدرّج رياضي</t>
   </si>
   <si>
-    <t>النادي الرياضي</t>
+    <t>النادي الرياضي...</t>
   </si>
   <si>
     <t>ملعب</t>
   </si>
   <si>
-    <t>ملعب رياضة البادل تنس</t>
+    <t>ملعب رياضة الب...</t>
   </si>
   <si>
     <t>غرفة لياقة</t>
@@ -2006,10 +1415,10 @@
     <t>مدرسة رياضية</t>
   </si>
   <si>
-    <t>صالة رياضة البيلاتس</t>
-  </si>
-  <si>
-    <t>نادي رياضة البادل تنس</t>
+    <t>صالة رياضة الب...</t>
+  </si>
+  <si>
+    <t>نادي رياضة الب...</t>
   </si>
   <si>
     <t>4.5</t>
@@ -2144,295 +1553,280 @@
     <t>165</t>
   </si>
   <si>
-    <t>8520، حي الصالحية، جدة 23763 3756، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ساحه العدل، الباهر، الباحة 61008، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2nd Floor، 4538 حلمي كتبي، Street، جدة 23521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي العليا, EKJA3266، 3266 الشهاب الطائفي، 6283, الخبر 34448، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3073 شارع بلال بن رباح، الشورى، ERGA9009، 9009، صفوى 32833، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2765 6ب، حي النهضة، EGUA6861، 6861، صفوى 32685، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3XQ6+W78، المجاردة 63976، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3X7W+FM8، طريق الملك عبدالعزيز، الزاهر، عنيزة 56467، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7661 Tanaten Valley, بدر، 4493, الرياض 14716، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8779 حي، الصليب الشرقي، MRMA2848، 2848 طريق العلا بن الحضومي، رابغ 25754، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7361 الامير سعود الفيصل ابن عبد ا، حي الروضة، JERA3707, JERA3707, 3707، جدة 23432، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4044 الزهراء، السعادة، 7529، الرياض 14256، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>43G7+WVQ، الشبيلي، المروة، عنيزة 56447، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الاحساء, بني معن 31982، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GR72+JQ، التنعيم، مكة 24412، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>95XW+WPJ، مدينة الملك فيصل الجامعية، الدمام 34211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>76R8+3F2، حي الخبر الشمالية، الخبر 34427، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7QX3+576، شارع مكة المكرمة، البوادي، خميس مشيط 62462،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع الحيلة، محايل عسير 63312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>EHDA7239 3029 الإسكان، الشرق، 7239، الدمام 32324، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6244 طريق الملك عبدالله، النسيم، جدة 23233، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الروضة، 3123، 8034، تبوك 47711، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2571 حليمة السعدية، 9074،، المحمدية، جدة 23623، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق المدينة الرياضية، المدينة الرياضية، الدمام 34233، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5358 القرينية 16، حي القرينية، JMYC7599، 7599، جدة 22535، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الخليل بن أحمد،، بدر، الرياض 14724، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8096 طريق الملك فيصل، أبها 62545، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز, الامير فواز الجنوبي، جدة 22431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2R26+3MX، العقدة، أبو عريش 84746، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>القاع البارد، بريدة 52365، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>النخيل مول, المغرزات، بوابة 4, الرياض 12483، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>69W3+VWH، القطار، الخرج 16297، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QV66+JJJ، الرماية، الرياض 14611، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الامير بندر بن عبدالعزيز، الخليج، الرياض 13224، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي السليمانية، WRMA5575، 5575 فياض، 8308، سكاكا 72351، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>F6WM+33، مدينة الملك عبد الله الاقتصادية 25774، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي المنتزة، 8270، 2298، بريدة 52381، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7F75+6FJ،، الوجه 48728، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>88VG+Q5R، طريق الملك عبدالعزيز، الفيصلية، القريات 77451، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7616 الشارع الخامس عشر، الخليج، سيهات‎ 32437، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>البرج، الخرج 45829، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابراهيم الخزامي، الخضراء، مكة 24267، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>شارع موسى بن نصير، قرطبة، الخبر 34235، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، النهضة، الدمام 34241، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>HP8H+RX3، المصانع، الرياض 14715، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9P3H+4F2، الطرف المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8HH3+9CQ، النايفية، الهفوف‎ 36445، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8533+2C9، جامعة الملك فهد للبترول والمعادن، الظهران 34464، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك فهد، ابن خلدون، الدمام 32253، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9M3W+9F9، الصمدة، ضبا‎ 49311، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>J4HR+4P8، النعيم، جدة 23621, جدة 23522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشوقية، مكة 24353، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>838R+QVM, King Abdullah University of Science and Technology, ثول 23955، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الراشدية، 7894، الراشدية، مكة المكرمة 24268 4368 24268، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>66J3+PHH، العفجة، الخرج 16255، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، الزهور، رأس تنورة 31941، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2599 الطريق الدائري الشمالي الفرعي، النخيل, 7635، الرياض 12385، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابن المخرمي، السلامة، جدة 22730، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7RR4+2PW، الروضة، الزلفي 15941، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2674 المعهد الصناعي، Al Faisaliyah District, 8086, جدة 23442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المغرزات، الرياض 12483، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3316، الدريهمية، 6478, الرياض 12796، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3373 الشرف, حي الندوة، الرياض 14814، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7097، حي الريان، حي الريان 2911, جدة 23643، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2834، 6810، المجد، المجد، 6810،، صبيا 85534، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2629+7WW، النواة، ينبع 46456، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Main Road شارع الليث العام و بجوار السوق المركزي, الليث 28434، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الإمام سعود مقابل النخيل مول، 3092 طريق الامام سعود بن عبدالعزيز بن محمد الفرعي، الازدهار، الرياض 12485، الرياض المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8552+3MH، جامعة الملك فهد للبترول والمعادن، الظهران 34464، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2286 AWS Al Amiri, Ash Shati District, 8521, جدة 23413، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله، العزيزية، الخفجي 39254، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7880، الهفوف والمبرز 36361 3671، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6413 احد، حي الروضة، EGDA4924، 4924، تاروت 32625، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الامير سلطان، أية مول،, جدة 23618، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6QVM+374، طريق حمزة بن عبدالمطلب، الرصراص، خميس مشيط 62441، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JFUA2327، 6351 عبيدالله المدني، 2327، جدة 23734، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المتوسطة الرابعة بنات, 4845، 8888، الموسى، خميس مشيط 62463، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابوبكر الصديق، النقرة، حائل 55433، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PJR9+GPF, 4899 شارع الأمير عبدالعزيز بن ثنيان، حي النخيل, RGNB7966، 7966, الرياض 12391، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>G7WV+79W، مريخ، جدة 23252، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2243 التغيرة، حي الربيع، بريدة 52362، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4210، مسرة، الطائف 26522 9039، 26522، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Safia bint Abdul Muttalib Street, المحمدية، جدة 23622، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GHXP+8FX، طريق الأمير نايف بن عبدالعزيز، الصادقية، المدينة المنورة 42335، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GX3J+J5، الرمال، عنك 32467، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي, 3920 8337 Al Amir Turki, حي الخبر الشمالية، الخبر 34425، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Alkhleej Road, غرناطة، سيهات‎ 32434، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7R3V+JV7، رنية 29812، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CMC5+R77، الروابي، CMC5+R78، المدينة المنورة 42381، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6157 طريق الملك فهد، الصناعية، GMGA3638، 3638، أبو عريش 84216، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CJ52+6FH، الأندلس، المبرز 36341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>area, Alradaef St, السفارات، الرياض 12511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالله، شارع الجيش، الطائف 24211، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2956 مالك بن ربيعة، 7898، الروابي، المدينة المنورة 42381، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CV97+547، العزيزية، مكة 24243، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>EGUA6587, 3167 6ب, النهضة، 6587, صفوى 32685، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GX8X+JW7، الملاحة، قرية الملاحة 32466، المملكة العربية السعودية</t>
+    <t>8520، حي الصال...</t>
+  </si>
+  <si>
+    <t>ساحه العدل، ال...</t>
+  </si>
+  <si>
+    <t>2nd Floor، 453...</t>
+  </si>
+  <si>
+    <t>حي العليا, EKJ...</t>
+  </si>
+  <si>
+    <t>3073 شارع بلال...</t>
+  </si>
+  <si>
+    <t>2765 6ب، حي ال...</t>
+  </si>
+  <si>
+    <t>3XQ6+W78، المج...</t>
+  </si>
+  <si>
+    <t>3X7W+FM8، طريق...</t>
+  </si>
+  <si>
+    <t>7661 Tanaten V...</t>
+  </si>
+  <si>
+    <t>8779 حي، الصلي...</t>
+  </si>
+  <si>
+    <t>7361 الامير سع...</t>
+  </si>
+  <si>
+    <t>4044 الزهراء، ...</t>
+  </si>
+  <si>
+    <t>43G7+WVQ، الشب...</t>
+  </si>
+  <si>
+    <t>الاحساء, بني م...</t>
+  </si>
+  <si>
+    <t>GR72+JQ، التنع...</t>
+  </si>
+  <si>
+    <t>95XW+WPJ، مدين...</t>
+  </si>
+  <si>
+    <t>76R8+3F2، حي ا...</t>
+  </si>
+  <si>
+    <t>7QX3+576، شارع...</t>
+  </si>
+  <si>
+    <t>شارع الحيلة، م...</t>
+  </si>
+  <si>
+    <t>EHDA7239 3029 ...</t>
+  </si>
+  <si>
+    <t>6244 طريق المل...</t>
+  </si>
+  <si>
+    <t>الروضة، 3123، ...</t>
+  </si>
+  <si>
+    <t>2571 حليمة الس...</t>
+  </si>
+  <si>
+    <t>طريق المدينة ا...</t>
+  </si>
+  <si>
+    <t>5358 القرينية ...</t>
+  </si>
+  <si>
+    <t>الخليل بن أحمد...</t>
+  </si>
+  <si>
+    <t>8096 طريق المل...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>2R26+3MX، العق...</t>
+  </si>
+  <si>
+    <t>القاع البارد، ...</t>
+  </si>
+  <si>
+    <t>النخيل مول, ال...</t>
+  </si>
+  <si>
+    <t>69W3+VWH، القط...</t>
+  </si>
+  <si>
+    <t>QV66+JJJ، الرم...</t>
+  </si>
+  <si>
+    <t>الامير بندر بن...</t>
+  </si>
+  <si>
+    <t>حي السليمانية،...</t>
+  </si>
+  <si>
+    <t>F6WM+33، مدينة...</t>
+  </si>
+  <si>
+    <t>حي المنتزة، 82...</t>
+  </si>
+  <si>
+    <t>7F75+6FJ،، الو...</t>
+  </si>
+  <si>
+    <t>88VG+Q5R، طريق...</t>
+  </si>
+  <si>
+    <t>7616 الشارع ال...</t>
+  </si>
+  <si>
+    <t>البرج، الخرج 4...</t>
+  </si>
+  <si>
+    <t>ابراهيم الخزام...</t>
+  </si>
+  <si>
+    <t>HP8H+RX3، المص...</t>
+  </si>
+  <si>
+    <t>9P3H+4F2، الطر...</t>
+  </si>
+  <si>
+    <t>8HH3+9CQ، النا...</t>
+  </si>
+  <si>
+    <t>8533+2C9، جامع...</t>
+  </si>
+  <si>
+    <t>طريق الملك فهد...</t>
+  </si>
+  <si>
+    <t>9M3W+9F9، الصم...</t>
+  </si>
+  <si>
+    <t>J4HR+4P8، النع...</t>
+  </si>
+  <si>
+    <t>الشوقية، مكة 2...</t>
+  </si>
+  <si>
+    <t>838R+QVM, King...</t>
+  </si>
+  <si>
+    <t>الراشدية، 7894...</t>
+  </si>
+  <si>
+    <t>66J3+PHH، العف...</t>
+  </si>
+  <si>
+    <t>2599 الطريق ال...</t>
+  </si>
+  <si>
+    <t>ابن المخرمي، ا...</t>
+  </si>
+  <si>
+    <t>7RR4+2PW، الرو...</t>
+  </si>
+  <si>
+    <t>2674 المعهد ال...</t>
+  </si>
+  <si>
+    <t>المغرزات، الري...</t>
+  </si>
+  <si>
+    <t>3316، الدريهمي...</t>
+  </si>
+  <si>
+    <t>3373 الشرف, حي...</t>
+  </si>
+  <si>
+    <t>7097، حي الريا...</t>
+  </si>
+  <si>
+    <t>2834، 6810، ال...</t>
+  </si>
+  <si>
+    <t>2629+7WW، النو...</t>
+  </si>
+  <si>
+    <t>Main Road شارع...</t>
+  </si>
+  <si>
+    <t>طريق الإمام سع...</t>
+  </si>
+  <si>
+    <t>8552+3MH، جامع...</t>
+  </si>
+  <si>
+    <t>2286 AWS Al Am...</t>
+  </si>
+  <si>
+    <t>7880، الهفوف و...</t>
+  </si>
+  <si>
+    <t>6413 احد، حي ا...</t>
+  </si>
+  <si>
+    <t>طريق الامير سل...</t>
+  </si>
+  <si>
+    <t>6QVM+374، طريق...</t>
+  </si>
+  <si>
+    <t>JFUA2327، 6351...</t>
+  </si>
+  <si>
+    <t>المتوسطة الراب...</t>
+  </si>
+  <si>
+    <t>ابوبكر الصديق،...</t>
+  </si>
+  <si>
+    <t>PJR9+GPF, 4899...</t>
+  </si>
+  <si>
+    <t>G7WV+79W، مريخ...</t>
+  </si>
+  <si>
+    <t>2243 التغيرة، ...</t>
+  </si>
+  <si>
+    <t>4210، مسرة، ال...</t>
+  </si>
+  <si>
+    <t>Safia bint Abd...</t>
+  </si>
+  <si>
+    <t>GHXP+8FX، طريق...</t>
+  </si>
+  <si>
+    <t>GX3J+J5، الرما...</t>
+  </si>
+  <si>
+    <t>حي, 3920 8337 ...</t>
+  </si>
+  <si>
+    <t>Alkhleej Road,...</t>
+  </si>
+  <si>
+    <t>7R3V+JV7، رنية...</t>
+  </si>
+  <si>
+    <t>CMC5+R77، الرو...</t>
+  </si>
+  <si>
+    <t>6157 طريق المل...</t>
+  </si>
+  <si>
+    <t>CJ52+6FH، الأن...</t>
+  </si>
+  <si>
+    <t>area, Alradaef...</t>
+  </si>
+  <si>
+    <t>2956 مالك بن ر...</t>
+  </si>
+  <si>
+    <t>CV97+547، العز...</t>
+  </si>
+  <si>
+    <t>EGUA6587, 3167...</t>
+  </si>
+  <si>
+    <t>GX8X+JW7، المل...</t>
   </si>
   <si>
     <t>+966557644210</t>
@@ -2615,70 +2009,55 @@
     <t>+966530770808</t>
   </si>
   <si>
-    <t>http://www.gracieuniversity.com/AZZAHRA%27A</t>
-  </si>
-  <si>
-    <t>http://www.youtube.com/user/salehareedh?feature=watch</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/palmpadel92</t>
-  </si>
-  <si>
-    <t>http://www.iau.edu.sa/</t>
-  </si>
-  <si>
-    <t>http://alshalalports.com/</t>
-  </si>
-  <si>
-    <t>https://www.fitnesstime.com.sa/</t>
-  </si>
-  <si>
-    <t>https://mos.gov.sa/ar/facilities/sportsfacilities/Pages/damamsalat.aspx</t>
-  </si>
-  <si>
-    <t>https://www.activgyms.com/ar/</t>
-  </si>
-  <si>
-    <t>https://fitnessstep.co/</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/powergym.sa/?hl=ar</t>
-  </si>
-  <si>
-    <t>https://linktr.ee/midanhotel4</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/barracuda_swim/</t>
-  </si>
-  <si>
-    <t>https://www.labarresa.com/</t>
-  </si>
-  <si>
-    <t>https://www.nc-sfa.com/</t>
-  </si>
-  <si>
-    <t>https://ironbox22.com/</t>
-  </si>
-  <si>
-    <t>http://www.halapadel.com/</t>
-  </si>
-  <si>
-    <t>https://sa.9round.com/</t>
-  </si>
-  <si>
-    <t>https://fitnesshere.net/</t>
-  </si>
-  <si>
-    <t>https://bodymotions.com.sa/</t>
-  </si>
-  <si>
-    <t>https://nextwellness.club/</t>
-  </si>
-  <si>
-    <t>https://instagram.com/tagpod.sa?igshid=YmMyMTA2M2Y=</t>
-  </si>
-  <si>
-    <t>https://alibtisam.club/</t>
+    <t>http://www.gra...</t>
+  </si>
+  <si>
+    <t>http://www.you...</t>
+  </si>
+  <si>
+    <t>https://linktr...</t>
+  </si>
+  <si>
+    <t>http://www.iau...</t>
+  </si>
+  <si>
+    <t>http://alshala...</t>
+  </si>
+  <si>
+    <t>https://www.fi...</t>
+  </si>
+  <si>
+    <t>https://mos.go...</t>
+  </si>
+  <si>
+    <t>https://www.ac...</t>
+  </si>
+  <si>
+    <t>https://fitnes...</t>
+  </si>
+  <si>
+    <t>https://www.la...</t>
+  </si>
+  <si>
+    <t>https://www.nc...</t>
+  </si>
+  <si>
+    <t>https://ironbo...</t>
+  </si>
+  <si>
+    <t>http://www.hal...</t>
+  </si>
+  <si>
+    <t>https://sa.9ro...</t>
+  </si>
+  <si>
+    <t>https://bodymo...</t>
+  </si>
+  <si>
+    <t>https://nextwe...</t>
+  </si>
+  <si>
+    <t>https://alibti...</t>
   </si>
 </sst>
 </file>
@@ -3086,2094 +2465,2094 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>380</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="s">
         <v>288</v>
-      </c>
-      <c r="G8" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
         <v>289</v>
-      </c>
-      <c r="G9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" t="s">
         <v>290</v>
-      </c>
-      <c r="G10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
         <v>291</v>
-      </c>
-      <c r="G11" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
         <v>292</v>
       </c>
-      <c r="G12" t="s">
-        <v>389</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>448</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
         <v>293</v>
-      </c>
-      <c r="G13" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
         <v>294</v>
-      </c>
-      <c r="G14" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" t="s">
         <v>295</v>
-      </c>
-      <c r="G15" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" t="s">
         <v>296</v>
-      </c>
-      <c r="G16" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>395</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
         <v>125</v>
       </c>
-      <c r="D21" t="s">
-        <v>222</v>
-      </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
         <v>205</v>
       </c>
-      <c r="D22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" t="s">
-        <v>302</v>
-      </c>
       <c r="G22" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
         <v>206</v>
-      </c>
-      <c r="F23" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>397</v>
+        <v>300</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>449</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>399</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>450</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="G30" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>406</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
         <v>141</v>
       </c>
-      <c r="C37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" t="s">
-        <v>238</v>
-      </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>408</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>320</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>409</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="G43" t="s">
-        <v>410</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="G44" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>328</v>
+        <v>231</v>
       </c>
       <c r="G48" t="s">
-        <v>412</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="G50" t="s">
-        <v>413</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>416</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F55" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>171</v>
       </c>
       <c r="F56" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="G56" t="s">
-        <v>417</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>339</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>419</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>270</v>
+        <v>173</v>
       </c>
       <c r="F61" t="s">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>343</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>248</v>
       </c>
       <c r="G65" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="G66" t="s">
-        <v>423</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
         <v>171</v>
       </c>
-      <c r="C67" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" t="s">
-        <v>230</v>
-      </c>
-      <c r="E67" t="s">
-        <v>268</v>
-      </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="G67" t="s">
-        <v>424</v>
+        <v>327</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>451</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="F68" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="G68" t="s">
-        <v>425</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>426</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
-        <v>350</v>
+        <v>253</v>
       </c>
       <c r="G70" t="s">
-        <v>427</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="F71" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="G71" t="s">
-        <v>428</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="F72" t="s">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>452</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="G73" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="F74" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="G74" t="s">
-        <v>431</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>275</v>
+        <v>178</v>
       </c>
       <c r="F75" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="G76" t="s">
-        <v>433</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
-        <v>434</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="G78" t="s">
-        <v>435</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="G79" t="s">
-        <v>436</v>
+        <v>339</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>453</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>360</v>
+        <v>263</v>
       </c>
       <c r="G80" t="s">
-        <v>437</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="F81" t="s">
-        <v>361</v>
+        <v>264</v>
       </c>
       <c r="G81" t="s">
-        <v>438</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
-        <v>362</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>363</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>439</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>364</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>440</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>344</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>454</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F86" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="F87" t="s">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>442</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F88" t="s">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F89" t="s">
-        <v>369</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
-        <v>370</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F91" t="s">
-        <v>371</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F92" t="s">
-        <v>372</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D93" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F93" t="s">
-        <v>373</v>
+        <v>276</v>
       </c>
       <c r="G93" t="s">
-        <v>444</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="G94" t="s">
-        <v>445</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F95" t="s">
-        <v>375</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="G96" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D97" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="F97" t="s">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F98" t="s">
-        <v>378</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="F99" t="s">
-        <v>379</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5253,7 +4632,7 @@
     <hyperlink ref="A70" r:id="rId73"/>
     <hyperlink ref="A71" r:id="rId74"/>
     <hyperlink ref="A72" r:id="rId75"/>
-    <hyperlink ref="H72" r:id="rId76" location="mpd=~4215574756639067321/editprofile/info"/>
+    <hyperlink ref="H72" r:id="rId76"/>
     <hyperlink ref="A73" r:id="rId77"/>
     <hyperlink ref="A74" r:id="rId78"/>
     <hyperlink ref="A75" r:id="rId79"/>
@@ -5324,2130 +4703,2130 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>455</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>709</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>456</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>667</v>
+        <v>470</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
-        <v>806</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>457</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
+        <v>456</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>711</v>
+        <v>514</v>
       </c>
       <c r="G4" t="s">
-        <v>807</v>
+        <v>605</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>866</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>458</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
-        <v>712</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>459</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>655</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
-        <v>713</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>460</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>517</v>
       </c>
       <c r="G7" t="s">
-        <v>808</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>461</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>715</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>462</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>471</v>
       </c>
       <c r="F9" t="s">
-        <v>716</v>
+        <v>519</v>
       </c>
       <c r="G9" t="s">
-        <v>809</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>463</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>561</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
-        <v>669</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
-        <v>717</v>
+        <v>520</v>
       </c>
       <c r="G10" t="s">
-        <v>810</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>464</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>562</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>656</v>
+        <v>459</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>718</v>
+        <v>521</v>
       </c>
       <c r="G11" t="s">
-        <v>811</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>465</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>719</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>466</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" t="s">
+        <v>523</v>
+      </c>
+      <c r="G13" t="s">
+        <v>610</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="E13" t="s">
-        <v>670</v>
-      </c>
-      <c r="F13" t="s">
-        <v>720</v>
-      </c>
-      <c r="G13" t="s">
-        <v>812</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>657</v>
+        <v>460</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>721</v>
+        <v>524</v>
       </c>
       <c r="G14" t="s">
-        <v>813</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>468</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>722</v>
+        <v>525</v>
       </c>
       <c r="G15" t="s">
-        <v>814</v>
+        <v>612</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>868</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>469</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>567</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>470</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
-        <v>654</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>672</v>
+        <v>475</v>
       </c>
       <c r="F17" t="s">
-        <v>724</v>
+        <v>527</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>869</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>471</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>725</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>472</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>570</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>658</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>673</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
-        <v>726</v>
+        <v>529</v>
       </c>
       <c r="G19" t="s">
-        <v>815</v>
+        <v>613</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>870</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>473</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>571</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s">
-        <v>657</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>727</v>
+        <v>530</v>
       </c>
       <c r="G20" t="s">
-        <v>816</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>474</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="C21" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>674</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
-        <v>728</v>
+        <v>531</v>
       </c>
       <c r="G21" t="s">
-        <v>817</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>475</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>377</v>
       </c>
       <c r="C22" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>729</v>
+        <v>532</v>
       </c>
       <c r="G22" t="s">
-        <v>818</v>
+        <v>616</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>871</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>476</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>574</v>
+        <v>378</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>730</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>477</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>575</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
-        <v>657</v>
+        <v>460</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>675</v>
+        <v>478</v>
       </c>
       <c r="F24" t="s">
-        <v>731</v>
+        <v>534</v>
       </c>
       <c r="G24" t="s">
-        <v>819</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>478</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>576</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>462</v>
       </c>
       <c r="D25" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E25" t="s">
-        <v>676</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
-        <v>732</v>
+        <v>535</v>
       </c>
       <c r="G25" t="s">
-        <v>820</v>
+        <v>618</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>872</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>479</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F26" t="s">
-        <v>733</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
         <v>480</v>
       </c>
-      <c r="B27" t="s">
-        <v>578</v>
-      </c>
-      <c r="C27" t="s">
-        <v>652</v>
-      </c>
-      <c r="D27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" t="s">
-        <v>677</v>
-      </c>
       <c r="F27" t="s">
-        <v>734</v>
+        <v>537</v>
       </c>
       <c r="G27" t="s">
-        <v>821</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
         <v>481</v>
       </c>
-      <c r="B28" t="s">
-        <v>579</v>
-      </c>
-      <c r="C28" t="s">
-        <v>651</v>
-      </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" t="s">
-        <v>678</v>
-      </c>
       <c r="F28" t="s">
-        <v>735</v>
+        <v>538</v>
       </c>
       <c r="G28" t="s">
-        <v>822</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
         <v>482</v>
       </c>
-      <c r="B29" t="s">
-        <v>580</v>
-      </c>
-      <c r="C29" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" t="s">
-        <v>217</v>
-      </c>
-      <c r="E29" t="s">
-        <v>679</v>
-      </c>
       <c r="F29" t="s">
-        <v>736</v>
+        <v>539</v>
       </c>
       <c r="G29" t="s">
-        <v>818</v>
+        <v>616</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>871</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>483</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>581</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>737</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>484</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
+        <v>386</v>
       </c>
       <c r="C31" t="s">
-        <v>660</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>680</v>
+        <v>483</v>
       </c>
       <c r="F31" t="s">
-        <v>738</v>
+        <v>541</v>
       </c>
       <c r="G31" t="s">
-        <v>823</v>
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>485</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>583</v>
+        <v>387</v>
       </c>
       <c r="C32" t="s">
-        <v>658</v>
+        <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>681</v>
+        <v>484</v>
       </c>
       <c r="F32" t="s">
-        <v>739</v>
+        <v>542</v>
       </c>
       <c r="G32" t="s">
-        <v>824</v>
+        <v>622</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>873</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>486</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>584</v>
+        <v>388</v>
       </c>
       <c r="F33" t="s">
-        <v>740</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>487</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>585</v>
+        <v>389</v>
       </c>
       <c r="C34" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
-        <v>741</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>488</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>586</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>682</v>
+        <v>485</v>
       </c>
       <c r="F35" t="s">
-        <v>742</v>
+        <v>545</v>
       </c>
       <c r="G35" t="s">
-        <v>818</v>
+        <v>616</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>871</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>489</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>587</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D36" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>743</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>490</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>588</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F37" t="s">
-        <v>744</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>491</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>589</v>
+        <v>393</v>
       </c>
       <c r="C38" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F38" t="s">
-        <v>745</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>492</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>590</v>
+        <v>394</v>
       </c>
       <c r="C39" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>683</v>
+        <v>486</v>
       </c>
       <c r="F39" t="s">
-        <v>746</v>
+        <v>549</v>
       </c>
       <c r="G39" t="s">
-        <v>825</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>493</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>591</v>
+        <v>395</v>
       </c>
       <c r="C40" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>680</v>
+        <v>483</v>
       </c>
       <c r="F40" t="s">
-        <v>747</v>
+        <v>550</v>
       </c>
       <c r="G40" t="s">
-        <v>826</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>494</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>592</v>
+        <v>396</v>
       </c>
       <c r="C41" t="s">
-        <v>655</v>
+        <v>458</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>684</v>
+        <v>487</v>
       </c>
       <c r="F41" t="s">
-        <v>748</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>495</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>593</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>656</v>
+        <v>459</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>685</v>
+        <v>488</v>
       </c>
       <c r="F42" t="s">
-        <v>749</v>
+        <v>552</v>
       </c>
       <c r="G42" t="s">
-        <v>827</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>496</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>594</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>686</v>
+        <v>489</v>
       </c>
       <c r="F43" t="s">
-        <v>750</v>
+        <v>553</v>
       </c>
       <c r="G43" t="s">
-        <v>828</v>
+        <v>626</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>874</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>497</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>595</v>
+        <v>399</v>
       </c>
       <c r="C44" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>687</v>
+        <v>490</v>
       </c>
       <c r="F44" t="s">
-        <v>751</v>
+        <v>212</v>
       </c>
       <c r="G44" t="s">
-        <v>829</v>
+        <v>627</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>875</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>498</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>596</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D45" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E45" t="s">
-        <v>688</v>
+        <v>491</v>
       </c>
       <c r="F45" t="s">
-        <v>752</v>
+        <v>539</v>
       </c>
       <c r="G45" t="s">
-        <v>830</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>499</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>597</v>
+        <v>401</v>
       </c>
       <c r="C46" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>831</v>
+        <v>629</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>876</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>598</v>
+        <v>402</v>
       </c>
       <c r="C47" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>667</v>
+        <v>470</v>
       </c>
       <c r="F47" t="s">
-        <v>753</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>501</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>599</v>
+        <v>403</v>
       </c>
       <c r="C48" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F48" t="s">
-        <v>754</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>502</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>600</v>
+        <v>404</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
-        <v>755</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>503</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>405</v>
       </c>
       <c r="C50" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F50" t="s">
-        <v>756</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>504</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>602</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>689</v>
+        <v>492</v>
       </c>
       <c r="F51" t="s">
-        <v>757</v>
+        <v>558</v>
       </c>
       <c r="G51" t="s">
-        <v>832</v>
+        <v>630</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>875</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>505</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>603</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>758</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>506</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>604</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>662</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>671</v>
+        <v>474</v>
       </c>
       <c r="F53" t="s">
-        <v>759</v>
+        <v>560</v>
       </c>
       <c r="G53" t="s">
-        <v>833</v>
+        <v>631</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>877</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>507</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>605</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>760</v>
+        <v>561</v>
       </c>
       <c r="G54" t="s">
-        <v>834</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>508</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>606</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E55" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>761</v>
+        <v>562</v>
       </c>
       <c r="G55" t="s">
-        <v>835</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>509</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>607</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>690</v>
+        <v>493</v>
       </c>
       <c r="F56" t="s">
-        <v>762</v>
+        <v>563</v>
       </c>
       <c r="G56" t="s">
-        <v>836</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>510</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>608</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="F57" t="s">
-        <v>763</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>511</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>609</v>
+        <v>412</v>
       </c>
       <c r="C58" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>764</v>
+        <v>539</v>
       </c>
       <c r="G58" t="s">
-        <v>837</v>
+        <v>635</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>610</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
-        <v>663</v>
+        <v>466</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>765</v>
+        <v>565</v>
       </c>
       <c r="G59" t="s">
-        <v>838</v>
+        <v>636</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>878</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>513</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>611</v>
+        <v>414</v>
       </c>
       <c r="C60" t="s">
-        <v>659</v>
+        <v>462</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="F60" t="s">
-        <v>766</v>
+        <v>566</v>
       </c>
       <c r="G60" t="s">
-        <v>839</v>
+        <v>637</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>879</v>
+        <v>674</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>514</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>612</v>
+        <v>415</v>
       </c>
       <c r="C61" t="s">
-        <v>655</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>691</v>
+        <v>494</v>
       </c>
       <c r="F61" t="s">
-        <v>767</v>
+        <v>567</v>
       </c>
       <c r="G61" t="s">
-        <v>840</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>613</v>
+        <v>416</v>
       </c>
       <c r="C62" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="F62" t="s">
-        <v>768</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>614</v>
+        <v>417</v>
       </c>
       <c r="C63" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>693</v>
+        <v>496</v>
       </c>
       <c r="F63" t="s">
-        <v>769</v>
+        <v>569</v>
       </c>
       <c r="G63" t="s">
-        <v>841</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>517</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>615</v>
+        <v>418</v>
       </c>
       <c r="C64" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>694</v>
+        <v>497</v>
       </c>
       <c r="F64" t="s">
-        <v>770</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>518</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>616</v>
+        <v>419</v>
       </c>
       <c r="C65" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>695</v>
+        <v>498</v>
       </c>
       <c r="F65" t="s">
-        <v>771</v>
+        <v>571</v>
       </c>
       <c r="G65" t="s">
-        <v>842</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>519</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>617</v>
+        <v>420</v>
       </c>
       <c r="D66" t="s">
-        <v>666</v>
+        <v>469</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>772</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>520</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>618</v>
+        <v>421</v>
       </c>
       <c r="C67" t="s">
-        <v>663</v>
+        <v>466</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>696</v>
+        <v>499</v>
       </c>
       <c r="F67" t="s">
-        <v>773</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>521</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>619</v>
+        <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>680</v>
+        <v>483</v>
       </c>
       <c r="F68" t="s">
-        <v>774</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>522</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>620</v>
+        <v>423</v>
       </c>
       <c r="C69" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F69" t="s">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="G69" t="s">
-        <v>843</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>523</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>621</v>
+        <v>424</v>
       </c>
       <c r="C70" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>776</v>
+        <v>576</v>
       </c>
       <c r="G70" t="s">
-        <v>844</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>524</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>622</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>457</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>500</v>
       </c>
       <c r="F71" t="s">
-        <v>777</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>525</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>623</v>
+        <v>426</v>
       </c>
       <c r="C72" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D72" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="G72" t="s">
-        <v>845</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>526</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>624</v>
+        <v>427</v>
       </c>
       <c r="C73" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>698</v>
+        <v>501</v>
       </c>
       <c r="F73" t="s">
-        <v>779</v>
+        <v>539</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>880</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>527</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>625</v>
+        <v>428</v>
       </c>
       <c r="C74" t="s">
-        <v>617</v>
+        <v>420</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>780</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>528</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>626</v>
+        <v>429</v>
       </c>
       <c r="C75" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>781</v>
+        <v>580</v>
       </c>
       <c r="G75" t="s">
-        <v>846</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>529</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>627</v>
+        <v>430</v>
       </c>
       <c r="C76" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="F76" t="s">
-        <v>782</v>
+        <v>581</v>
       </c>
       <c r="G76" t="s">
-        <v>847</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>530</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>628</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="E77" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="F77" t="s">
-        <v>783</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>531</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>629</v>
+        <v>432</v>
       </c>
       <c r="C78" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D78" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E78" t="s">
-        <v>674</v>
+        <v>477</v>
       </c>
       <c r="F78" t="s">
-        <v>784</v>
+        <v>583</v>
       </c>
       <c r="G78" t="s">
-        <v>848</v>
+        <v>646</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>532</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>630</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s">
-        <v>659</v>
+        <v>462</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F79" t="s">
-        <v>785</v>
+        <v>584</v>
       </c>
       <c r="G79" t="s">
-        <v>849</v>
+        <v>647</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>879</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>533</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>631</v>
+        <v>434</v>
       </c>
       <c r="C80" t="s">
-        <v>664</v>
+        <v>467</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>699</v>
+        <v>502</v>
       </c>
       <c r="F80" t="s">
-        <v>786</v>
+        <v>585</v>
       </c>
       <c r="G80" t="s">
-        <v>850</v>
+        <v>648</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>881</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>632</v>
+        <v>435</v>
       </c>
       <c r="C81" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="E81" t="s">
-        <v>700</v>
+        <v>503</v>
       </c>
       <c r="F81" t="s">
-        <v>787</v>
+        <v>586</v>
       </c>
       <c r="G81" t="s">
-        <v>851</v>
+        <v>649</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>882</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>535</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>633</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="F82" t="s">
-        <v>788</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>536</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>634</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D83" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>701</v>
+        <v>504</v>
       </c>
       <c r="F83" t="s">
-        <v>789</v>
+        <v>588</v>
       </c>
       <c r="G83" t="s">
-        <v>852</v>
+        <v>650</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>883</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>537</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>635</v>
+        <v>438</v>
       </c>
       <c r="C84" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D84" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="E84" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="F84" t="s">
-        <v>790</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>538</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>636</v>
+        <v>439</v>
       </c>
       <c r="C85" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" t="s">
+        <v>505</v>
+      </c>
+      <c r="F85" t="s">
+        <v>590</v>
+      </c>
+      <c r="G85" t="s">
         <v>651</v>
       </c>
-      <c r="D85" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" t="s">
-        <v>702</v>
-      </c>
-      <c r="F85" t="s">
-        <v>791</v>
-      </c>
-      <c r="G85" t="s">
-        <v>853</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>884</v>
+        <v>678</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>637</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>792</v>
+        <v>591</v>
       </c>
       <c r="G86" t="s">
-        <v>854</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>540</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>638</v>
+        <v>441</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>703</v>
+        <v>506</v>
       </c>
       <c r="F87" t="s">
-        <v>793</v>
+        <v>592</v>
       </c>
       <c r="G87" t="s">
-        <v>855</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>541</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>639</v>
+        <v>442</v>
       </c>
       <c r="C88" t="s">
-        <v>658</v>
+        <v>461</v>
       </c>
       <c r="D88" t="s">
-        <v>665</v>
+        <v>468</v>
       </c>
       <c r="E88" t="s">
-        <v>704</v>
+        <v>507</v>
       </c>
       <c r="F88" t="s">
-        <v>794</v>
+        <v>593</v>
       </c>
       <c r="G88" t="s">
-        <v>856</v>
+        <v>654</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>885</v>
+        <v>679</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>542</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>640</v>
+        <v>443</v>
       </c>
       <c r="C89" t="s">
-        <v>659</v>
+        <v>462</v>
       </c>
       <c r="F89" t="s">
-        <v>795</v>
+        <v>594</v>
       </c>
       <c r="G89" t="s">
-        <v>857</v>
+        <v>655</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>543</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>641</v>
+        <v>444</v>
       </c>
       <c r="C90" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
-        <v>666</v>
+        <v>469</v>
       </c>
       <c r="E90" t="s">
-        <v>705</v>
+        <v>508</v>
       </c>
       <c r="F90" t="s">
-        <v>796</v>
+        <v>595</v>
       </c>
       <c r="G90" t="s">
-        <v>858</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>544</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>642</v>
+        <v>445</v>
       </c>
       <c r="C91" t="s">
-        <v>656</v>
+        <v>459</v>
       </c>
       <c r="D91" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="F91" t="s">
-        <v>797</v>
+        <v>596</v>
       </c>
       <c r="G91" t="s">
-        <v>859</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>545</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>643</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D92" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>798</v>
+        <v>597</v>
       </c>
       <c r="G92" t="s">
-        <v>860</v>
+        <v>658</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>546</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>644</v>
+        <v>447</v>
       </c>
       <c r="C93" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
       <c r="D93" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>707</v>
+        <v>510</v>
       </c>
       <c r="F93" t="s">
-        <v>799</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>547</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>645</v>
+        <v>448</v>
       </c>
       <c r="C94" t="s">
-        <v>658</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>695</v>
+        <v>498</v>
       </c>
       <c r="F94" t="s">
-        <v>800</v>
+        <v>599</v>
       </c>
       <c r="G94" t="s">
-        <v>861</v>
+        <v>659</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>886</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>548</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>646</v>
+        <v>449</v>
       </c>
       <c r="C95" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>150</v>
       </c>
       <c r="F95" t="s">
-        <v>801</v>
+        <v>539</v>
       </c>
       <c r="G95" t="s">
-        <v>862</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>549</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>647</v>
+        <v>450</v>
       </c>
       <c r="C96" t="s">
-        <v>589</v>
+        <v>393</v>
       </c>
       <c r="D96" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="E96" t="s">
-        <v>708</v>
+        <v>511</v>
       </c>
       <c r="F96" t="s">
-        <v>802</v>
+        <v>600</v>
       </c>
       <c r="G96" t="s">
-        <v>863</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>648</v>
+        <v>451</v>
       </c>
       <c r="C97" t="s">
-        <v>660</v>
+        <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
-        <v>699</v>
+        <v>502</v>
       </c>
       <c r="F97" t="s">
-        <v>803</v>
+        <v>601</v>
       </c>
       <c r="G97" t="s">
-        <v>864</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>551</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>649</v>
+        <v>452</v>
       </c>
       <c r="C98" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="D98" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="F98" t="s">
-        <v>804</v>
+        <v>602</v>
       </c>
       <c r="G98" t="s">
-        <v>865</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>552</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>650</v>
+        <v>453</v>
       </c>
       <c r="C99" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="F99" t="s">
-        <v>805</v>
+        <v>603</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>887</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
